--- a/Data/RawData/YPE_Data/YPE_75/Digital Data_YPE75/YPE_PILAdata_Plot_75.xlsx
+++ b/Data/RawData/YPE_Data/YPE_75/Digital Data_YPE75/YPE_PILAdata_Plot_75.xlsx
@@ -299,7 +299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -325,24 +325,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -351,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -381,9 +370,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -3737,23 +3723,23 @@
       <c r="AI18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AJ18" s="5">
+      <c r="AJ18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM18" s="5">
         <v>55.0</v>
       </c>
-      <c r="AK18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL18" s="5">
+      <c r="AN18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO18" s="5">
         <v>-90.0</v>
-      </c>
-      <c r="AM18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO18" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="AP18" s="5" t="s">
         <v>62</v>
@@ -3971,3928 +3957,3928 @@
       <c r="BI19" s="5">
         <v>0.0</v>
       </c>
-      <c r="BJ19" s="10" t="s">
+      <c r="BJ19" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20">
-      <c r="H20" s="11"/>
+      <c r="H20" s="10"/>
       <c r="AS20" s="9"/>
     </row>
     <row r="21">
-      <c r="H21" s="11"/>
+      <c r="H21" s="10"/>
       <c r="AS21" s="9"/>
     </row>
     <row r="22">
-      <c r="H22" s="11"/>
+      <c r="H22" s="10"/>
       <c r="AS22" s="9"/>
     </row>
     <row r="23">
-      <c r="H23" s="11"/>
+      <c r="H23" s="10"/>
       <c r="AS23" s="9"/>
     </row>
     <row r="24">
-      <c r="H24" s="11"/>
+      <c r="H24" s="10"/>
       <c r="AS24" s="9"/>
     </row>
     <row r="25">
-      <c r="H25" s="11"/>
+      <c r="H25" s="10"/>
       <c r="AS25" s="9"/>
     </row>
     <row r="26">
-      <c r="H26" s="11"/>
+      <c r="H26" s="10"/>
       <c r="AS26" s="9"/>
     </row>
     <row r="27">
-      <c r="H27" s="11"/>
+      <c r="H27" s="10"/>
       <c r="AS27" s="9"/>
     </row>
     <row r="28">
-      <c r="H28" s="11"/>
+      <c r="H28" s="10"/>
       <c r="AS28" s="9"/>
     </row>
     <row r="29">
-      <c r="H29" s="11"/>
+      <c r="H29" s="10"/>
       <c r="AS29" s="9"/>
     </row>
     <row r="30">
-      <c r="H30" s="11"/>
+      <c r="H30" s="10"/>
       <c r="AS30" s="9"/>
     </row>
     <row r="31">
-      <c r="H31" s="11"/>
+      <c r="H31" s="10"/>
       <c r="AS31" s="9"/>
     </row>
     <row r="32">
-      <c r="H32" s="11"/>
+      <c r="H32" s="10"/>
       <c r="AS32" s="9"/>
     </row>
     <row r="33">
-      <c r="H33" s="11"/>
+      <c r="H33" s="10"/>
       <c r="AS33" s="9"/>
     </row>
     <row r="34">
-      <c r="H34" s="11"/>
+      <c r="H34" s="10"/>
       <c r="AS34" s="9"/>
     </row>
     <row r="35">
-      <c r="H35" s="11"/>
+      <c r="H35" s="10"/>
       <c r="AS35" s="9"/>
     </row>
     <row r="36">
-      <c r="H36" s="11"/>
+      <c r="H36" s="10"/>
       <c r="AS36" s="9"/>
     </row>
     <row r="37">
-      <c r="H37" s="11"/>
+      <c r="H37" s="10"/>
       <c r="AS37" s="9"/>
     </row>
     <row r="38">
-      <c r="H38" s="11"/>
+      <c r="H38" s="10"/>
       <c r="AS38" s="9"/>
     </row>
     <row r="39">
-      <c r="H39" s="11"/>
+      <c r="H39" s="10"/>
       <c r="AS39" s="9"/>
     </row>
     <row r="40">
-      <c r="H40" s="11"/>
+      <c r="H40" s="10"/>
       <c r="AS40" s="9"/>
     </row>
     <row r="41">
-      <c r="H41" s="11"/>
+      <c r="H41" s="10"/>
       <c r="AS41" s="9"/>
     </row>
     <row r="42">
-      <c r="H42" s="11"/>
+      <c r="H42" s="10"/>
       <c r="AS42" s="9"/>
     </row>
     <row r="43">
-      <c r="H43" s="11"/>
+      <c r="H43" s="10"/>
       <c r="AS43" s="9"/>
     </row>
     <row r="44">
-      <c r="H44" s="11"/>
+      <c r="H44" s="10"/>
       <c r="AS44" s="9"/>
     </row>
     <row r="45">
-      <c r="H45" s="11"/>
+      <c r="H45" s="10"/>
       <c r="AS45" s="9"/>
     </row>
     <row r="46">
-      <c r="H46" s="11"/>
+      <c r="H46" s="10"/>
       <c r="AS46" s="9"/>
     </row>
     <row r="47">
-      <c r="H47" s="11"/>
+      <c r="H47" s="10"/>
       <c r="AS47" s="9"/>
     </row>
     <row r="48">
-      <c r="H48" s="11"/>
+      <c r="H48" s="10"/>
       <c r="AS48" s="9"/>
     </row>
     <row r="49">
-      <c r="H49" s="11"/>
+      <c r="H49" s="10"/>
       <c r="AS49" s="9"/>
     </row>
     <row r="50">
-      <c r="H50" s="11"/>
+      <c r="H50" s="10"/>
       <c r="AS50" s="9"/>
     </row>
     <row r="51">
-      <c r="H51" s="11"/>
+      <c r="H51" s="10"/>
       <c r="AS51" s="9"/>
     </row>
     <row r="52">
-      <c r="H52" s="11"/>
+      <c r="H52" s="10"/>
       <c r="AS52" s="9"/>
     </row>
     <row r="53">
-      <c r="H53" s="11"/>
+      <c r="H53" s="10"/>
       <c r="AS53" s="9"/>
     </row>
     <row r="54">
-      <c r="H54" s="11"/>
+      <c r="H54" s="10"/>
       <c r="AS54" s="9"/>
     </row>
     <row r="55">
-      <c r="H55" s="11"/>
+      <c r="H55" s="10"/>
       <c r="AS55" s="9"/>
     </row>
     <row r="56">
-      <c r="H56" s="11"/>
+      <c r="H56" s="10"/>
       <c r="AS56" s="9"/>
     </row>
     <row r="57">
-      <c r="H57" s="11"/>
+      <c r="H57" s="10"/>
       <c r="AS57" s="9"/>
     </row>
     <row r="58">
-      <c r="H58" s="11"/>
+      <c r="H58" s="10"/>
       <c r="AS58" s="9"/>
     </row>
     <row r="59">
-      <c r="H59" s="11"/>
+      <c r="H59" s="10"/>
       <c r="AS59" s="9"/>
     </row>
     <row r="60">
-      <c r="H60" s="11"/>
+      <c r="H60" s="10"/>
       <c r="AS60" s="9"/>
     </row>
     <row r="61">
-      <c r="H61" s="11"/>
+      <c r="H61" s="10"/>
       <c r="AS61" s="9"/>
     </row>
     <row r="62">
-      <c r="H62" s="11"/>
+      <c r="H62" s="10"/>
       <c r="AS62" s="9"/>
     </row>
     <row r="63">
-      <c r="H63" s="11"/>
+      <c r="H63" s="10"/>
       <c r="AS63" s="9"/>
     </row>
     <row r="64">
-      <c r="H64" s="11"/>
+      <c r="H64" s="10"/>
       <c r="AS64" s="9"/>
     </row>
     <row r="65">
-      <c r="H65" s="11"/>
+      <c r="H65" s="10"/>
       <c r="AS65" s="9"/>
     </row>
     <row r="66">
-      <c r="H66" s="11"/>
+      <c r="H66" s="10"/>
       <c r="AS66" s="9"/>
     </row>
     <row r="67">
-      <c r="H67" s="11"/>
+      <c r="H67" s="10"/>
       <c r="AS67" s="9"/>
     </row>
     <row r="68">
-      <c r="H68" s="11"/>
+      <c r="H68" s="10"/>
       <c r="AS68" s="9"/>
     </row>
     <row r="69">
-      <c r="H69" s="11"/>
+      <c r="H69" s="10"/>
       <c r="AS69" s="9"/>
     </row>
     <row r="70">
-      <c r="H70" s="11"/>
+      <c r="H70" s="10"/>
       <c r="AS70" s="9"/>
     </row>
     <row r="71">
-      <c r="H71" s="11"/>
+      <c r="H71" s="10"/>
       <c r="AS71" s="9"/>
     </row>
     <row r="72">
-      <c r="H72" s="11"/>
+      <c r="H72" s="10"/>
       <c r="AS72" s="9"/>
     </row>
     <row r="73">
-      <c r="H73" s="11"/>
+      <c r="H73" s="10"/>
       <c r="AS73" s="9"/>
     </row>
     <row r="74">
-      <c r="H74" s="11"/>
+      <c r="H74" s="10"/>
       <c r="AS74" s="9"/>
     </row>
     <row r="75">
-      <c r="H75" s="11"/>
+      <c r="H75" s="10"/>
       <c r="AS75" s="9"/>
     </row>
     <row r="76">
-      <c r="H76" s="11"/>
+      <c r="H76" s="10"/>
       <c r="AS76" s="9"/>
     </row>
     <row r="77">
-      <c r="H77" s="11"/>
+      <c r="H77" s="10"/>
       <c r="AS77" s="9"/>
     </row>
     <row r="78">
-      <c r="H78" s="11"/>
+      <c r="H78" s="10"/>
       <c r="AS78" s="9"/>
     </row>
     <row r="79">
-      <c r="H79" s="11"/>
+      <c r="H79" s="10"/>
       <c r="AS79" s="9"/>
     </row>
     <row r="80">
-      <c r="H80" s="11"/>
+      <c r="H80" s="10"/>
       <c r="AS80" s="9"/>
     </row>
     <row r="81">
-      <c r="H81" s="11"/>
+      <c r="H81" s="10"/>
       <c r="AS81" s="9"/>
     </row>
     <row r="82">
-      <c r="H82" s="11"/>
+      <c r="H82" s="10"/>
       <c r="AS82" s="9"/>
     </row>
     <row r="83">
-      <c r="H83" s="11"/>
+      <c r="H83" s="10"/>
       <c r="AS83" s="9"/>
     </row>
     <row r="84">
-      <c r="H84" s="11"/>
+      <c r="H84" s="10"/>
       <c r="AS84" s="9"/>
     </row>
     <row r="85">
-      <c r="H85" s="11"/>
+      <c r="H85" s="10"/>
       <c r="AS85" s="9"/>
     </row>
     <row r="86">
-      <c r="H86" s="11"/>
+      <c r="H86" s="10"/>
       <c r="AS86" s="9"/>
     </row>
     <row r="87">
-      <c r="H87" s="11"/>
+      <c r="H87" s="10"/>
       <c r="AS87" s="9"/>
     </row>
     <row r="88">
-      <c r="H88" s="11"/>
+      <c r="H88" s="10"/>
       <c r="AS88" s="9"/>
     </row>
     <row r="89">
-      <c r="H89" s="11"/>
+      <c r="H89" s="10"/>
       <c r="AS89" s="9"/>
     </row>
     <row r="90">
-      <c r="H90" s="11"/>
+      <c r="H90" s="10"/>
       <c r="AS90" s="9"/>
     </row>
     <row r="91">
-      <c r="H91" s="11"/>
+      <c r="H91" s="10"/>
       <c r="AS91" s="9"/>
     </row>
     <row r="92">
-      <c r="H92" s="11"/>
+      <c r="H92" s="10"/>
       <c r="AS92" s="9"/>
     </row>
     <row r="93">
-      <c r="H93" s="11"/>
+      <c r="H93" s="10"/>
       <c r="AS93" s="9"/>
     </row>
     <row r="94">
-      <c r="H94" s="11"/>
+      <c r="H94" s="10"/>
       <c r="AS94" s="9"/>
     </row>
     <row r="95">
-      <c r="H95" s="11"/>
+      <c r="H95" s="10"/>
       <c r="AS95" s="9"/>
     </row>
     <row r="96">
-      <c r="H96" s="11"/>
+      <c r="H96" s="10"/>
       <c r="AS96" s="9"/>
     </row>
     <row r="97">
-      <c r="H97" s="11"/>
+      <c r="H97" s="10"/>
       <c r="AS97" s="9"/>
     </row>
     <row r="98">
-      <c r="H98" s="11"/>
+      <c r="H98" s="10"/>
       <c r="AS98" s="9"/>
     </row>
     <row r="99">
-      <c r="H99" s="11"/>
+      <c r="H99" s="10"/>
       <c r="AS99" s="9"/>
     </row>
     <row r="100">
-      <c r="H100" s="11"/>
+      <c r="H100" s="10"/>
       <c r="AS100" s="9"/>
     </row>
     <row r="101">
-      <c r="H101" s="11"/>
+      <c r="H101" s="10"/>
       <c r="AS101" s="9"/>
     </row>
     <row r="102">
-      <c r="H102" s="11"/>
+      <c r="H102" s="10"/>
       <c r="AS102" s="9"/>
     </row>
     <row r="103">
-      <c r="H103" s="11"/>
+      <c r="H103" s="10"/>
       <c r="AS103" s="9"/>
     </row>
     <row r="104">
-      <c r="H104" s="11"/>
+      <c r="H104" s="10"/>
       <c r="AS104" s="9"/>
     </row>
     <row r="105">
-      <c r="H105" s="11"/>
+      <c r="H105" s="10"/>
       <c r="AS105" s="9"/>
     </row>
     <row r="106">
-      <c r="H106" s="11"/>
+      <c r="H106" s="10"/>
       <c r="AS106" s="9"/>
     </row>
     <row r="107">
-      <c r="H107" s="11"/>
+      <c r="H107" s="10"/>
       <c r="AS107" s="9"/>
     </row>
     <row r="108">
-      <c r="H108" s="11"/>
+      <c r="H108" s="10"/>
       <c r="AS108" s="9"/>
     </row>
     <row r="109">
-      <c r="H109" s="11"/>
+      <c r="H109" s="10"/>
       <c r="AS109" s="9"/>
     </row>
     <row r="110">
-      <c r="H110" s="11"/>
+      <c r="H110" s="10"/>
       <c r="AS110" s="9"/>
     </row>
     <row r="111">
-      <c r="H111" s="11"/>
+      <c r="H111" s="10"/>
       <c r="AS111" s="9"/>
     </row>
     <row r="112">
-      <c r="H112" s="11"/>
+      <c r="H112" s="10"/>
       <c r="AS112" s="9"/>
     </row>
     <row r="113">
-      <c r="H113" s="11"/>
+      <c r="H113" s="10"/>
       <c r="AS113" s="9"/>
     </row>
     <row r="114">
-      <c r="H114" s="11"/>
+      <c r="H114" s="10"/>
       <c r="AS114" s="9"/>
     </row>
     <row r="115">
-      <c r="H115" s="11"/>
+      <c r="H115" s="10"/>
       <c r="AS115" s="9"/>
     </row>
     <row r="116">
-      <c r="H116" s="11"/>
+      <c r="H116" s="10"/>
       <c r="AS116" s="9"/>
     </row>
     <row r="117">
-      <c r="H117" s="11"/>
+      <c r="H117" s="10"/>
       <c r="AS117" s="9"/>
     </row>
     <row r="118">
-      <c r="H118" s="11"/>
+      <c r="H118" s="10"/>
       <c r="AS118" s="9"/>
     </row>
     <row r="119">
-      <c r="H119" s="11"/>
+      <c r="H119" s="10"/>
       <c r="AS119" s="9"/>
     </row>
     <row r="120">
-      <c r="H120" s="11"/>
+      <c r="H120" s="10"/>
       <c r="AS120" s="9"/>
     </row>
     <row r="121">
-      <c r="H121" s="11"/>
+      <c r="H121" s="10"/>
       <c r="AS121" s="9"/>
     </row>
     <row r="122">
-      <c r="H122" s="11"/>
+      <c r="H122" s="10"/>
       <c r="AS122" s="9"/>
     </row>
     <row r="123">
-      <c r="H123" s="11"/>
+      <c r="H123" s="10"/>
       <c r="AS123" s="9"/>
     </row>
     <row r="124">
-      <c r="H124" s="11"/>
+      <c r="H124" s="10"/>
       <c r="AS124" s="9"/>
     </row>
     <row r="125">
-      <c r="H125" s="11"/>
+      <c r="H125" s="10"/>
       <c r="AS125" s="9"/>
     </row>
     <row r="126">
-      <c r="H126" s="11"/>
+      <c r="H126" s="10"/>
       <c r="AS126" s="9"/>
     </row>
     <row r="127">
-      <c r="H127" s="11"/>
+      <c r="H127" s="10"/>
       <c r="AS127" s="9"/>
     </row>
     <row r="128">
-      <c r="H128" s="11"/>
+      <c r="H128" s="10"/>
       <c r="AS128" s="9"/>
     </row>
     <row r="129">
-      <c r="H129" s="11"/>
+      <c r="H129" s="10"/>
       <c r="AS129" s="9"/>
     </row>
     <row r="130">
-      <c r="H130" s="11"/>
+      <c r="H130" s="10"/>
       <c r="AS130" s="9"/>
     </row>
     <row r="131">
-      <c r="H131" s="11"/>
+      <c r="H131" s="10"/>
       <c r="AS131" s="9"/>
     </row>
     <row r="132">
-      <c r="H132" s="11"/>
+      <c r="H132" s="10"/>
       <c r="AS132" s="9"/>
     </row>
     <row r="133">
-      <c r="H133" s="11"/>
+      <c r="H133" s="10"/>
       <c r="AS133" s="9"/>
     </row>
     <row r="134">
-      <c r="H134" s="11"/>
+      <c r="H134" s="10"/>
       <c r="AS134" s="9"/>
     </row>
     <row r="135">
-      <c r="H135" s="11"/>
+      <c r="H135" s="10"/>
       <c r="AS135" s="9"/>
     </row>
     <row r="136">
-      <c r="H136" s="11"/>
+      <c r="H136" s="10"/>
       <c r="AS136" s="9"/>
     </row>
     <row r="137">
-      <c r="H137" s="11"/>
+      <c r="H137" s="10"/>
       <c r="AS137" s="9"/>
     </row>
     <row r="138">
-      <c r="H138" s="11"/>
+      <c r="H138" s="10"/>
       <c r="AS138" s="9"/>
     </row>
     <row r="139">
-      <c r="H139" s="11"/>
+      <c r="H139" s="10"/>
       <c r="AS139" s="9"/>
     </row>
     <row r="140">
-      <c r="H140" s="11"/>
+      <c r="H140" s="10"/>
       <c r="AS140" s="9"/>
     </row>
     <row r="141">
-      <c r="H141" s="11"/>
+      <c r="H141" s="10"/>
       <c r="AS141" s="9"/>
     </row>
     <row r="142">
-      <c r="H142" s="11"/>
+      <c r="H142" s="10"/>
       <c r="AS142" s="9"/>
     </row>
     <row r="143">
-      <c r="H143" s="11"/>
+      <c r="H143" s="10"/>
       <c r="AS143" s="9"/>
     </row>
     <row r="144">
-      <c r="H144" s="11"/>
+      <c r="H144" s="10"/>
       <c r="AS144" s="9"/>
     </row>
     <row r="145">
-      <c r="H145" s="11"/>
+      <c r="H145" s="10"/>
       <c r="AS145" s="9"/>
     </row>
     <row r="146">
-      <c r="H146" s="11"/>
+      <c r="H146" s="10"/>
       <c r="AS146" s="9"/>
     </row>
     <row r="147">
-      <c r="H147" s="11"/>
+      <c r="H147" s="10"/>
       <c r="AS147" s="9"/>
     </row>
     <row r="148">
-      <c r="H148" s="11"/>
+      <c r="H148" s="10"/>
       <c r="AS148" s="9"/>
     </row>
     <row r="149">
-      <c r="H149" s="11"/>
+      <c r="H149" s="10"/>
       <c r="AS149" s="9"/>
     </row>
     <row r="150">
-      <c r="H150" s="11"/>
+      <c r="H150" s="10"/>
       <c r="AS150" s="9"/>
     </row>
     <row r="151">
-      <c r="H151" s="11"/>
+      <c r="H151" s="10"/>
       <c r="AS151" s="9"/>
     </row>
     <row r="152">
-      <c r="H152" s="11"/>
+      <c r="H152" s="10"/>
       <c r="AS152" s="9"/>
     </row>
     <row r="153">
-      <c r="H153" s="11"/>
+      <c r="H153" s="10"/>
       <c r="AS153" s="9"/>
     </row>
     <row r="154">
-      <c r="H154" s="11"/>
+      <c r="H154" s="10"/>
       <c r="AS154" s="9"/>
     </row>
     <row r="155">
-      <c r="H155" s="11"/>
+      <c r="H155" s="10"/>
       <c r="AS155" s="9"/>
     </row>
     <row r="156">
-      <c r="H156" s="11"/>
+      <c r="H156" s="10"/>
       <c r="AS156" s="9"/>
     </row>
     <row r="157">
-      <c r="H157" s="11"/>
+      <c r="H157" s="10"/>
       <c r="AS157" s="9"/>
     </row>
     <row r="158">
-      <c r="H158" s="11"/>
+      <c r="H158" s="10"/>
       <c r="AS158" s="9"/>
     </row>
     <row r="159">
-      <c r="H159" s="11"/>
+      <c r="H159" s="10"/>
       <c r="AS159" s="9"/>
     </row>
     <row r="160">
-      <c r="H160" s="11"/>
+      <c r="H160" s="10"/>
       <c r="AS160" s="9"/>
     </row>
     <row r="161">
-      <c r="H161" s="11"/>
+      <c r="H161" s="10"/>
       <c r="AS161" s="9"/>
     </row>
     <row r="162">
-      <c r="H162" s="11"/>
+      <c r="H162" s="10"/>
       <c r="AS162" s="9"/>
     </row>
     <row r="163">
-      <c r="H163" s="11"/>
+      <c r="H163" s="10"/>
       <c r="AS163" s="9"/>
     </row>
     <row r="164">
-      <c r="H164" s="11"/>
+      <c r="H164" s="10"/>
       <c r="AS164" s="9"/>
     </row>
     <row r="165">
-      <c r="H165" s="11"/>
+      <c r="H165" s="10"/>
       <c r="AS165" s="9"/>
     </row>
     <row r="166">
-      <c r="H166" s="11"/>
+      <c r="H166" s="10"/>
       <c r="AS166" s="9"/>
     </row>
     <row r="167">
-      <c r="H167" s="11"/>
+      <c r="H167" s="10"/>
       <c r="AS167" s="9"/>
     </row>
     <row r="168">
-      <c r="H168" s="11"/>
+      <c r="H168" s="10"/>
       <c r="AS168" s="9"/>
     </row>
     <row r="169">
-      <c r="H169" s="11"/>
+      <c r="H169" s="10"/>
       <c r="AS169" s="9"/>
     </row>
     <row r="170">
-      <c r="H170" s="11"/>
+      <c r="H170" s="10"/>
       <c r="AS170" s="9"/>
     </row>
     <row r="171">
-      <c r="H171" s="11"/>
+      <c r="H171" s="10"/>
       <c r="AS171" s="9"/>
     </row>
     <row r="172">
-      <c r="H172" s="11"/>
+      <c r="H172" s="10"/>
       <c r="AS172" s="9"/>
     </row>
     <row r="173">
-      <c r="H173" s="11"/>
+      <c r="H173" s="10"/>
       <c r="AS173" s="9"/>
     </row>
     <row r="174">
-      <c r="H174" s="11"/>
+      <c r="H174" s="10"/>
       <c r="AS174" s="9"/>
     </row>
     <row r="175">
-      <c r="H175" s="11"/>
+      <c r="H175" s="10"/>
       <c r="AS175" s="9"/>
     </row>
     <row r="176">
-      <c r="H176" s="11"/>
+      <c r="H176" s="10"/>
       <c r="AS176" s="9"/>
     </row>
     <row r="177">
-      <c r="H177" s="11"/>
+      <c r="H177" s="10"/>
       <c r="AS177" s="9"/>
     </row>
     <row r="178">
-      <c r="H178" s="11"/>
+      <c r="H178" s="10"/>
       <c r="AS178" s="9"/>
     </row>
     <row r="179">
-      <c r="H179" s="11"/>
+      <c r="H179" s="10"/>
       <c r="AS179" s="9"/>
     </row>
     <row r="180">
-      <c r="H180" s="11"/>
+      <c r="H180" s="10"/>
       <c r="AS180" s="9"/>
     </row>
     <row r="181">
-      <c r="H181" s="11"/>
+      <c r="H181" s="10"/>
       <c r="AS181" s="9"/>
     </row>
     <row r="182">
-      <c r="H182" s="11"/>
+      <c r="H182" s="10"/>
       <c r="AS182" s="9"/>
     </row>
     <row r="183">
-      <c r="H183" s="11"/>
+      <c r="H183" s="10"/>
       <c r="AS183" s="9"/>
     </row>
     <row r="184">
-      <c r="H184" s="11"/>
+      <c r="H184" s="10"/>
       <c r="AS184" s="9"/>
     </row>
     <row r="185">
-      <c r="H185" s="11"/>
+      <c r="H185" s="10"/>
       <c r="AS185" s="9"/>
     </row>
     <row r="186">
-      <c r="H186" s="11"/>
+      <c r="H186" s="10"/>
       <c r="AS186" s="9"/>
     </row>
     <row r="187">
-      <c r="H187" s="11"/>
+      <c r="H187" s="10"/>
       <c r="AS187" s="9"/>
     </row>
     <row r="188">
-      <c r="H188" s="11"/>
+      <c r="H188" s="10"/>
       <c r="AS188" s="9"/>
     </row>
     <row r="189">
-      <c r="H189" s="11"/>
+      <c r="H189" s="10"/>
       <c r="AS189" s="9"/>
     </row>
     <row r="190">
-      <c r="H190" s="11"/>
+      <c r="H190" s="10"/>
       <c r="AS190" s="9"/>
     </row>
     <row r="191">
-      <c r="H191" s="11"/>
+      <c r="H191" s="10"/>
       <c r="AS191" s="9"/>
     </row>
     <row r="192">
-      <c r="H192" s="11"/>
+      <c r="H192" s="10"/>
       <c r="AS192" s="9"/>
     </row>
     <row r="193">
-      <c r="H193" s="11"/>
+      <c r="H193" s="10"/>
       <c r="AS193" s="9"/>
     </row>
     <row r="194">
-      <c r="H194" s="11"/>
+      <c r="H194" s="10"/>
       <c r="AS194" s="9"/>
     </row>
     <row r="195">
-      <c r="H195" s="11"/>
+      <c r="H195" s="10"/>
       <c r="AS195" s="9"/>
     </row>
     <row r="196">
-      <c r="H196" s="11"/>
+      <c r="H196" s="10"/>
       <c r="AS196" s="9"/>
     </row>
     <row r="197">
-      <c r="H197" s="11"/>
+      <c r="H197" s="10"/>
       <c r="AS197" s="9"/>
     </row>
     <row r="198">
-      <c r="H198" s="11"/>
+      <c r="H198" s="10"/>
       <c r="AS198" s="9"/>
     </row>
     <row r="199">
-      <c r="H199" s="11"/>
+      <c r="H199" s="10"/>
       <c r="AS199" s="9"/>
     </row>
     <row r="200">
-      <c r="H200" s="11"/>
+      <c r="H200" s="10"/>
       <c r="AS200" s="9"/>
     </row>
     <row r="201">
-      <c r="H201" s="11"/>
+      <c r="H201" s="10"/>
       <c r="AS201" s="9"/>
     </row>
     <row r="202">
-      <c r="H202" s="11"/>
+      <c r="H202" s="10"/>
       <c r="AS202" s="9"/>
     </row>
     <row r="203">
-      <c r="H203" s="11"/>
+      <c r="H203" s="10"/>
       <c r="AS203" s="9"/>
     </row>
     <row r="204">
-      <c r="H204" s="11"/>
+      <c r="H204" s="10"/>
       <c r="AS204" s="9"/>
     </row>
     <row r="205">
-      <c r="H205" s="11"/>
+      <c r="H205" s="10"/>
       <c r="AS205" s="9"/>
     </row>
     <row r="206">
-      <c r="H206" s="11"/>
+      <c r="H206" s="10"/>
       <c r="AS206" s="9"/>
     </row>
     <row r="207">
-      <c r="H207" s="11"/>
+      <c r="H207" s="10"/>
       <c r="AS207" s="9"/>
     </row>
     <row r="208">
-      <c r="H208" s="11"/>
+      <c r="H208" s="10"/>
       <c r="AS208" s="9"/>
     </row>
     <row r="209">
-      <c r="H209" s="11"/>
+      <c r="H209" s="10"/>
       <c r="AS209" s="9"/>
     </row>
     <row r="210">
-      <c r="H210" s="11"/>
+      <c r="H210" s="10"/>
       <c r="AS210" s="9"/>
     </row>
     <row r="211">
-      <c r="H211" s="11"/>
+      <c r="H211" s="10"/>
       <c r="AS211" s="9"/>
     </row>
     <row r="212">
-      <c r="H212" s="11"/>
+      <c r="H212" s="10"/>
       <c r="AS212" s="9"/>
     </row>
     <row r="213">
-      <c r="H213" s="11"/>
+      <c r="H213" s="10"/>
       <c r="AS213" s="9"/>
     </row>
     <row r="214">
-      <c r="H214" s="11"/>
+      <c r="H214" s="10"/>
       <c r="AS214" s="9"/>
     </row>
     <row r="215">
-      <c r="H215" s="11"/>
+      <c r="H215" s="10"/>
       <c r="AS215" s="9"/>
     </row>
     <row r="216">
-      <c r="H216" s="11"/>
+      <c r="H216" s="10"/>
       <c r="AS216" s="9"/>
     </row>
     <row r="217">
-      <c r="H217" s="11"/>
+      <c r="H217" s="10"/>
       <c r="AS217" s="9"/>
     </row>
     <row r="218">
-      <c r="H218" s="11"/>
+      <c r="H218" s="10"/>
       <c r="AS218" s="9"/>
     </row>
     <row r="219">
-      <c r="H219" s="11"/>
+      <c r="H219" s="10"/>
       <c r="AS219" s="9"/>
     </row>
     <row r="220">
-      <c r="H220" s="11"/>
+      <c r="H220" s="10"/>
       <c r="AS220" s="9"/>
     </row>
     <row r="221">
-      <c r="H221" s="11"/>
+      <c r="H221" s="10"/>
       <c r="AS221" s="9"/>
     </row>
     <row r="222">
-      <c r="H222" s="11"/>
+      <c r="H222" s="10"/>
       <c r="AS222" s="9"/>
     </row>
     <row r="223">
-      <c r="H223" s="11"/>
+      <c r="H223" s="10"/>
       <c r="AS223" s="9"/>
     </row>
     <row r="224">
-      <c r="H224" s="11"/>
+      <c r="H224" s="10"/>
       <c r="AS224" s="9"/>
     </row>
     <row r="225">
-      <c r="H225" s="11"/>
+      <c r="H225" s="10"/>
       <c r="AS225" s="9"/>
     </row>
     <row r="226">
-      <c r="H226" s="11"/>
+      <c r="H226" s="10"/>
       <c r="AS226" s="9"/>
     </row>
     <row r="227">
-      <c r="H227" s="11"/>
+      <c r="H227" s="10"/>
       <c r="AS227" s="9"/>
     </row>
     <row r="228">
-      <c r="H228" s="11"/>
+      <c r="H228" s="10"/>
       <c r="AS228" s="9"/>
     </row>
     <row r="229">
-      <c r="H229" s="11"/>
+      <c r="H229" s="10"/>
       <c r="AS229" s="9"/>
     </row>
     <row r="230">
-      <c r="H230" s="11"/>
+      <c r="H230" s="10"/>
       <c r="AS230" s="9"/>
     </row>
     <row r="231">
-      <c r="H231" s="11"/>
+      <c r="H231" s="10"/>
       <c r="AS231" s="9"/>
     </row>
     <row r="232">
-      <c r="H232" s="11"/>
+      <c r="H232" s="10"/>
       <c r="AS232" s="9"/>
     </row>
     <row r="233">
-      <c r="H233" s="11"/>
+      <c r="H233" s="10"/>
       <c r="AS233" s="9"/>
     </row>
     <row r="234">
-      <c r="H234" s="11"/>
+      <c r="H234" s="10"/>
       <c r="AS234" s="9"/>
     </row>
     <row r="235">
-      <c r="H235" s="11"/>
+      <c r="H235" s="10"/>
       <c r="AS235" s="9"/>
     </row>
     <row r="236">
-      <c r="H236" s="11"/>
+      <c r="H236" s="10"/>
       <c r="AS236" s="9"/>
     </row>
     <row r="237">
-      <c r="H237" s="11"/>
+      <c r="H237" s="10"/>
       <c r="AS237" s="9"/>
     </row>
     <row r="238">
-      <c r="H238" s="11"/>
+      <c r="H238" s="10"/>
       <c r="AS238" s="9"/>
     </row>
     <row r="239">
-      <c r="H239" s="11"/>
+      <c r="H239" s="10"/>
       <c r="AS239" s="9"/>
     </row>
     <row r="240">
-      <c r="H240" s="11"/>
+      <c r="H240" s="10"/>
       <c r="AS240" s="9"/>
     </row>
     <row r="241">
-      <c r="H241" s="11"/>
+      <c r="H241" s="10"/>
       <c r="AS241" s="9"/>
     </row>
     <row r="242">
-      <c r="H242" s="11"/>
+      <c r="H242" s="10"/>
       <c r="AS242" s="9"/>
     </row>
     <row r="243">
-      <c r="H243" s="11"/>
+      <c r="H243" s="10"/>
       <c r="AS243" s="9"/>
     </row>
     <row r="244">
-      <c r="H244" s="11"/>
+      <c r="H244" s="10"/>
       <c r="AS244" s="9"/>
     </row>
     <row r="245">
-      <c r="H245" s="11"/>
+      <c r="H245" s="10"/>
       <c r="AS245" s="9"/>
     </row>
     <row r="246">
-      <c r="H246" s="11"/>
+      <c r="H246" s="10"/>
       <c r="AS246" s="9"/>
     </row>
     <row r="247">
-      <c r="H247" s="11"/>
+      <c r="H247" s="10"/>
       <c r="AS247" s="9"/>
     </row>
     <row r="248">
-      <c r="H248" s="11"/>
+      <c r="H248" s="10"/>
       <c r="AS248" s="9"/>
     </row>
     <row r="249">
-      <c r="H249" s="11"/>
+      <c r="H249" s="10"/>
       <c r="AS249" s="9"/>
     </row>
     <row r="250">
-      <c r="H250" s="11"/>
+      <c r="H250" s="10"/>
       <c r="AS250" s="9"/>
     </row>
     <row r="251">
-      <c r="H251" s="11"/>
+      <c r="H251" s="10"/>
       <c r="AS251" s="9"/>
     </row>
     <row r="252">
-      <c r="H252" s="11"/>
+      <c r="H252" s="10"/>
       <c r="AS252" s="9"/>
     </row>
     <row r="253">
-      <c r="H253" s="11"/>
+      <c r="H253" s="10"/>
       <c r="AS253" s="9"/>
     </row>
     <row r="254">
-      <c r="H254" s="11"/>
+      <c r="H254" s="10"/>
       <c r="AS254" s="9"/>
     </row>
     <row r="255">
-      <c r="H255" s="11"/>
+      <c r="H255" s="10"/>
       <c r="AS255" s="9"/>
     </row>
     <row r="256">
-      <c r="H256" s="11"/>
+      <c r="H256" s="10"/>
       <c r="AS256" s="9"/>
     </row>
     <row r="257">
-      <c r="H257" s="11"/>
+      <c r="H257" s="10"/>
       <c r="AS257" s="9"/>
     </row>
     <row r="258">
-      <c r="H258" s="11"/>
+      <c r="H258" s="10"/>
       <c r="AS258" s="9"/>
     </row>
     <row r="259">
-      <c r="H259" s="11"/>
+      <c r="H259" s="10"/>
       <c r="AS259" s="9"/>
     </row>
     <row r="260">
-      <c r="H260" s="11"/>
+      <c r="H260" s="10"/>
       <c r="AS260" s="9"/>
     </row>
     <row r="261">
-      <c r="H261" s="11"/>
+      <c r="H261" s="10"/>
       <c r="AS261" s="9"/>
     </row>
     <row r="262">
-      <c r="H262" s="11"/>
+      <c r="H262" s="10"/>
       <c r="AS262" s="9"/>
     </row>
     <row r="263">
-      <c r="H263" s="11"/>
+      <c r="H263" s="10"/>
       <c r="AS263" s="9"/>
     </row>
     <row r="264">
-      <c r="H264" s="11"/>
+      <c r="H264" s="10"/>
       <c r="AS264" s="9"/>
     </row>
     <row r="265">
-      <c r="H265" s="11"/>
+      <c r="H265" s="10"/>
       <c r="AS265" s="9"/>
     </row>
     <row r="266">
-      <c r="H266" s="11"/>
+      <c r="H266" s="10"/>
       <c r="AS266" s="9"/>
     </row>
     <row r="267">
-      <c r="H267" s="11"/>
+      <c r="H267" s="10"/>
       <c r="AS267" s="9"/>
     </row>
     <row r="268">
-      <c r="H268" s="11"/>
+      <c r="H268" s="10"/>
       <c r="AS268" s="9"/>
     </row>
     <row r="269">
-      <c r="H269" s="11"/>
+      <c r="H269" s="10"/>
       <c r="AS269" s="9"/>
     </row>
     <row r="270">
-      <c r="H270" s="11"/>
+      <c r="H270" s="10"/>
       <c r="AS270" s="9"/>
     </row>
     <row r="271">
-      <c r="H271" s="11"/>
+      <c r="H271" s="10"/>
       <c r="AS271" s="9"/>
     </row>
     <row r="272">
-      <c r="H272" s="11"/>
+      <c r="H272" s="10"/>
       <c r="AS272" s="9"/>
     </row>
     <row r="273">
-      <c r="H273" s="11"/>
+      <c r="H273" s="10"/>
       <c r="AS273" s="9"/>
     </row>
     <row r="274">
-      <c r="H274" s="11"/>
+      <c r="H274" s="10"/>
       <c r="AS274" s="9"/>
     </row>
     <row r="275">
-      <c r="H275" s="11"/>
+      <c r="H275" s="10"/>
       <c r="AS275" s="9"/>
     </row>
     <row r="276">
-      <c r="H276" s="11"/>
+      <c r="H276" s="10"/>
       <c r="AS276" s="9"/>
     </row>
     <row r="277">
-      <c r="H277" s="11"/>
+      <c r="H277" s="10"/>
       <c r="AS277" s="9"/>
     </row>
     <row r="278">
-      <c r="H278" s="11"/>
+      <c r="H278" s="10"/>
       <c r="AS278" s="9"/>
     </row>
     <row r="279">
-      <c r="H279" s="11"/>
+      <c r="H279" s="10"/>
       <c r="AS279" s="9"/>
     </row>
     <row r="280">
-      <c r="H280" s="11"/>
+      <c r="H280" s="10"/>
       <c r="AS280" s="9"/>
     </row>
     <row r="281">
-      <c r="H281" s="11"/>
+      <c r="H281" s="10"/>
       <c r="AS281" s="9"/>
     </row>
     <row r="282">
-      <c r="H282" s="11"/>
+      <c r="H282" s="10"/>
       <c r="AS282" s="9"/>
     </row>
     <row r="283">
-      <c r="H283" s="11"/>
+      <c r="H283" s="10"/>
       <c r="AS283" s="9"/>
     </row>
     <row r="284">
-      <c r="H284" s="11"/>
+      <c r="H284" s="10"/>
       <c r="AS284" s="9"/>
     </row>
     <row r="285">
-      <c r="H285" s="11"/>
+      <c r="H285" s="10"/>
       <c r="AS285" s="9"/>
     </row>
     <row r="286">
-      <c r="H286" s="11"/>
+      <c r="H286" s="10"/>
       <c r="AS286" s="9"/>
     </row>
     <row r="287">
-      <c r="H287" s="11"/>
+      <c r="H287" s="10"/>
       <c r="AS287" s="9"/>
     </row>
     <row r="288">
-      <c r="H288" s="11"/>
+      <c r="H288" s="10"/>
       <c r="AS288" s="9"/>
     </row>
     <row r="289">
-      <c r="H289" s="11"/>
+      <c r="H289" s="10"/>
       <c r="AS289" s="9"/>
     </row>
     <row r="290">
-      <c r="H290" s="11"/>
+      <c r="H290" s="10"/>
       <c r="AS290" s="9"/>
     </row>
     <row r="291">
-      <c r="H291" s="11"/>
+      <c r="H291" s="10"/>
       <c r="AS291" s="9"/>
     </row>
     <row r="292">
-      <c r="H292" s="11"/>
+      <c r="H292" s="10"/>
       <c r="AS292" s="9"/>
     </row>
     <row r="293">
-      <c r="H293" s="11"/>
+      <c r="H293" s="10"/>
       <c r="AS293" s="9"/>
     </row>
     <row r="294">
-      <c r="H294" s="11"/>
+      <c r="H294" s="10"/>
       <c r="AS294" s="9"/>
     </row>
     <row r="295">
-      <c r="H295" s="11"/>
+      <c r="H295" s="10"/>
       <c r="AS295" s="9"/>
     </row>
     <row r="296">
-      <c r="H296" s="11"/>
+      <c r="H296" s="10"/>
       <c r="AS296" s="9"/>
     </row>
     <row r="297">
-      <c r="H297" s="11"/>
+      <c r="H297" s="10"/>
       <c r="AS297" s="9"/>
     </row>
     <row r="298">
-      <c r="H298" s="11"/>
+      <c r="H298" s="10"/>
       <c r="AS298" s="9"/>
     </row>
     <row r="299">
-      <c r="H299" s="11"/>
+      <c r="H299" s="10"/>
       <c r="AS299" s="9"/>
     </row>
     <row r="300">
-      <c r="H300" s="11"/>
+      <c r="H300" s="10"/>
       <c r="AS300" s="9"/>
     </row>
     <row r="301">
-      <c r="H301" s="11"/>
+      <c r="H301" s="10"/>
       <c r="AS301" s="9"/>
     </row>
     <row r="302">
-      <c r="H302" s="11"/>
+      <c r="H302" s="10"/>
       <c r="AS302" s="9"/>
     </row>
     <row r="303">
-      <c r="H303" s="11"/>
+      <c r="H303" s="10"/>
       <c r="AS303" s="9"/>
     </row>
     <row r="304">
-      <c r="H304" s="11"/>
+      <c r="H304" s="10"/>
       <c r="AS304" s="9"/>
     </row>
     <row r="305">
-      <c r="H305" s="11"/>
+      <c r="H305" s="10"/>
       <c r="AS305" s="9"/>
     </row>
     <row r="306">
-      <c r="H306" s="11"/>
+      <c r="H306" s="10"/>
       <c r="AS306" s="9"/>
     </row>
     <row r="307">
-      <c r="H307" s="11"/>
+      <c r="H307" s="10"/>
       <c r="AS307" s="9"/>
     </row>
     <row r="308">
-      <c r="H308" s="11"/>
+      <c r="H308" s="10"/>
       <c r="AS308" s="9"/>
     </row>
     <row r="309">
-      <c r="H309" s="11"/>
+      <c r="H309" s="10"/>
       <c r="AS309" s="9"/>
     </row>
     <row r="310">
-      <c r="H310" s="11"/>
+      <c r="H310" s="10"/>
       <c r="AS310" s="9"/>
     </row>
     <row r="311">
-      <c r="H311" s="11"/>
+      <c r="H311" s="10"/>
       <c r="AS311" s="9"/>
     </row>
     <row r="312">
-      <c r="H312" s="11"/>
+      <c r="H312" s="10"/>
       <c r="AS312" s="9"/>
     </row>
     <row r="313">
-      <c r="H313" s="11"/>
+      <c r="H313" s="10"/>
       <c r="AS313" s="9"/>
     </row>
     <row r="314">
-      <c r="H314" s="11"/>
+      <c r="H314" s="10"/>
       <c r="AS314" s="9"/>
     </row>
     <row r="315">
-      <c r="H315" s="11"/>
+      <c r="H315" s="10"/>
       <c r="AS315" s="9"/>
     </row>
     <row r="316">
-      <c r="H316" s="11"/>
+      <c r="H316" s="10"/>
       <c r="AS316" s="9"/>
     </row>
     <row r="317">
-      <c r="H317" s="11"/>
+      <c r="H317" s="10"/>
       <c r="AS317" s="9"/>
     </row>
     <row r="318">
-      <c r="H318" s="11"/>
+      <c r="H318" s="10"/>
       <c r="AS318" s="9"/>
     </row>
     <row r="319">
-      <c r="H319" s="11"/>
+      <c r="H319" s="10"/>
       <c r="AS319" s="9"/>
     </row>
     <row r="320">
-      <c r="H320" s="11"/>
+      <c r="H320" s="10"/>
       <c r="AS320" s="9"/>
     </row>
     <row r="321">
-      <c r="H321" s="11"/>
+      <c r="H321" s="10"/>
       <c r="AS321" s="9"/>
     </row>
     <row r="322">
-      <c r="H322" s="11"/>
+      <c r="H322" s="10"/>
       <c r="AS322" s="9"/>
     </row>
     <row r="323">
-      <c r="H323" s="11"/>
+      <c r="H323" s="10"/>
       <c r="AS323" s="9"/>
     </row>
     <row r="324">
-      <c r="H324" s="11"/>
+      <c r="H324" s="10"/>
       <c r="AS324" s="9"/>
     </row>
     <row r="325">
-      <c r="H325" s="11"/>
+      <c r="H325" s="10"/>
       <c r="AS325" s="9"/>
     </row>
     <row r="326">
-      <c r="H326" s="11"/>
+      <c r="H326" s="10"/>
       <c r="AS326" s="9"/>
     </row>
     <row r="327">
-      <c r="H327" s="11"/>
+      <c r="H327" s="10"/>
       <c r="AS327" s="9"/>
     </row>
     <row r="328">
-      <c r="H328" s="11"/>
+      <c r="H328" s="10"/>
       <c r="AS328" s="9"/>
     </row>
     <row r="329">
-      <c r="H329" s="11"/>
+      <c r="H329" s="10"/>
       <c r="AS329" s="9"/>
     </row>
     <row r="330">
-      <c r="H330" s="11"/>
+      <c r="H330" s="10"/>
       <c r="AS330" s="9"/>
     </row>
     <row r="331">
-      <c r="H331" s="11"/>
+      <c r="H331" s="10"/>
       <c r="AS331" s="9"/>
     </row>
     <row r="332">
-      <c r="H332" s="11"/>
+      <c r="H332" s="10"/>
       <c r="AS332" s="9"/>
     </row>
     <row r="333">
-      <c r="H333" s="11"/>
+      <c r="H333" s="10"/>
       <c r="AS333" s="9"/>
     </row>
     <row r="334">
-      <c r="H334" s="11"/>
+      <c r="H334" s="10"/>
       <c r="AS334" s="9"/>
     </row>
     <row r="335">
-      <c r="H335" s="11"/>
+      <c r="H335" s="10"/>
       <c r="AS335" s="9"/>
     </row>
     <row r="336">
-      <c r="H336" s="11"/>
+      <c r="H336" s="10"/>
       <c r="AS336" s="9"/>
     </row>
     <row r="337">
-      <c r="H337" s="11"/>
+      <c r="H337" s="10"/>
       <c r="AS337" s="9"/>
     </row>
     <row r="338">
-      <c r="H338" s="11"/>
+      <c r="H338" s="10"/>
       <c r="AS338" s="9"/>
     </row>
     <row r="339">
-      <c r="H339" s="11"/>
+      <c r="H339" s="10"/>
       <c r="AS339" s="9"/>
     </row>
     <row r="340">
-      <c r="H340" s="11"/>
+      <c r="H340" s="10"/>
       <c r="AS340" s="9"/>
     </row>
     <row r="341">
-      <c r="H341" s="11"/>
+      <c r="H341" s="10"/>
       <c r="AS341" s="9"/>
     </row>
     <row r="342">
-      <c r="H342" s="11"/>
+      <c r="H342" s="10"/>
       <c r="AS342" s="9"/>
     </row>
     <row r="343">
-      <c r="H343" s="11"/>
+      <c r="H343" s="10"/>
       <c r="AS343" s="9"/>
     </row>
     <row r="344">
-      <c r="H344" s="11"/>
+      <c r="H344" s="10"/>
       <c r="AS344" s="9"/>
     </row>
     <row r="345">
-      <c r="H345" s="11"/>
+      <c r="H345" s="10"/>
       <c r="AS345" s="9"/>
     </row>
     <row r="346">
-      <c r="H346" s="11"/>
+      <c r="H346" s="10"/>
       <c r="AS346" s="9"/>
     </row>
     <row r="347">
-      <c r="H347" s="11"/>
+      <c r="H347" s="10"/>
       <c r="AS347" s="9"/>
     </row>
     <row r="348">
-      <c r="H348" s="11"/>
+      <c r="H348" s="10"/>
       <c r="AS348" s="9"/>
     </row>
     <row r="349">
-      <c r="H349" s="11"/>
+      <c r="H349" s="10"/>
       <c r="AS349" s="9"/>
     </row>
     <row r="350">
-      <c r="H350" s="11"/>
+      <c r="H350" s="10"/>
       <c r="AS350" s="9"/>
     </row>
     <row r="351">
-      <c r="H351" s="11"/>
+      <c r="H351" s="10"/>
       <c r="AS351" s="9"/>
     </row>
     <row r="352">
-      <c r="H352" s="11"/>
+      <c r="H352" s="10"/>
       <c r="AS352" s="9"/>
     </row>
     <row r="353">
-      <c r="H353" s="11"/>
+      <c r="H353" s="10"/>
       <c r="AS353" s="9"/>
     </row>
     <row r="354">
-      <c r="H354" s="11"/>
+      <c r="H354" s="10"/>
       <c r="AS354" s="9"/>
     </row>
     <row r="355">
-      <c r="H355" s="11"/>
+      <c r="H355" s="10"/>
       <c r="AS355" s="9"/>
     </row>
     <row r="356">
-      <c r="H356" s="11"/>
+      <c r="H356" s="10"/>
       <c r="AS356" s="9"/>
     </row>
     <row r="357">
-      <c r="H357" s="11"/>
+      <c r="H357" s="10"/>
       <c r="AS357" s="9"/>
     </row>
     <row r="358">
-      <c r="H358" s="11"/>
+      <c r="H358" s="10"/>
       <c r="AS358" s="9"/>
     </row>
     <row r="359">
-      <c r="H359" s="11"/>
+      <c r="H359" s="10"/>
       <c r="AS359" s="9"/>
     </row>
     <row r="360">
-      <c r="H360" s="11"/>
+      <c r="H360" s="10"/>
       <c r="AS360" s="9"/>
     </row>
     <row r="361">
-      <c r="H361" s="11"/>
+      <c r="H361" s="10"/>
       <c r="AS361" s="9"/>
     </row>
     <row r="362">
-      <c r="H362" s="11"/>
+      <c r="H362" s="10"/>
       <c r="AS362" s="9"/>
     </row>
     <row r="363">
-      <c r="H363" s="11"/>
+      <c r="H363" s="10"/>
       <c r="AS363" s="9"/>
     </row>
     <row r="364">
-      <c r="H364" s="11"/>
+      <c r="H364" s="10"/>
       <c r="AS364" s="9"/>
     </row>
     <row r="365">
-      <c r="H365" s="11"/>
+      <c r="H365" s="10"/>
       <c r="AS365" s="9"/>
     </row>
     <row r="366">
-      <c r="H366" s="11"/>
+      <c r="H366" s="10"/>
       <c r="AS366" s="9"/>
     </row>
     <row r="367">
-      <c r="H367" s="11"/>
+      <c r="H367" s="10"/>
       <c r="AS367" s="9"/>
     </row>
     <row r="368">
-      <c r="H368" s="11"/>
+      <c r="H368" s="10"/>
       <c r="AS368" s="9"/>
     </row>
     <row r="369">
-      <c r="H369" s="11"/>
+      <c r="H369" s="10"/>
       <c r="AS369" s="9"/>
     </row>
     <row r="370">
-      <c r="H370" s="11"/>
+      <c r="H370" s="10"/>
       <c r="AS370" s="9"/>
     </row>
     <row r="371">
-      <c r="H371" s="11"/>
+      <c r="H371" s="10"/>
       <c r="AS371" s="9"/>
     </row>
     <row r="372">
-      <c r="H372" s="11"/>
+      <c r="H372" s="10"/>
       <c r="AS372" s="9"/>
     </row>
     <row r="373">
-      <c r="H373" s="11"/>
+      <c r="H373" s="10"/>
       <c r="AS373" s="9"/>
     </row>
     <row r="374">
-      <c r="H374" s="11"/>
+      <c r="H374" s="10"/>
       <c r="AS374" s="9"/>
     </row>
     <row r="375">
-      <c r="H375" s="11"/>
+      <c r="H375" s="10"/>
       <c r="AS375" s="9"/>
     </row>
     <row r="376">
-      <c r="H376" s="11"/>
+      <c r="H376" s="10"/>
       <c r="AS376" s="9"/>
     </row>
     <row r="377">
-      <c r="H377" s="11"/>
+      <c r="H377" s="10"/>
       <c r="AS377" s="9"/>
     </row>
     <row r="378">
-      <c r="H378" s="11"/>
+      <c r="H378" s="10"/>
       <c r="AS378" s="9"/>
     </row>
     <row r="379">
-      <c r="H379" s="11"/>
+      <c r="H379" s="10"/>
       <c r="AS379" s="9"/>
     </row>
     <row r="380">
-      <c r="H380" s="11"/>
+      <c r="H380" s="10"/>
       <c r="AS380" s="9"/>
     </row>
     <row r="381">
-      <c r="H381" s="11"/>
+      <c r="H381" s="10"/>
       <c r="AS381" s="9"/>
     </row>
     <row r="382">
-      <c r="H382" s="11"/>
+      <c r="H382" s="10"/>
       <c r="AS382" s="9"/>
     </row>
     <row r="383">
-      <c r="H383" s="11"/>
+      <c r="H383" s="10"/>
       <c r="AS383" s="9"/>
     </row>
     <row r="384">
-      <c r="H384" s="11"/>
+      <c r="H384" s="10"/>
       <c r="AS384" s="9"/>
     </row>
     <row r="385">
-      <c r="H385" s="11"/>
+      <c r="H385" s="10"/>
       <c r="AS385" s="9"/>
     </row>
     <row r="386">
-      <c r="H386" s="11"/>
+      <c r="H386" s="10"/>
       <c r="AS386" s="9"/>
     </row>
     <row r="387">
-      <c r="H387" s="11"/>
+      <c r="H387" s="10"/>
       <c r="AS387" s="9"/>
     </row>
     <row r="388">
-      <c r="H388" s="11"/>
+      <c r="H388" s="10"/>
       <c r="AS388" s="9"/>
     </row>
     <row r="389">
-      <c r="H389" s="11"/>
+      <c r="H389" s="10"/>
       <c r="AS389" s="9"/>
     </row>
     <row r="390">
-      <c r="H390" s="11"/>
+      <c r="H390" s="10"/>
       <c r="AS390" s="9"/>
     </row>
     <row r="391">
-      <c r="H391" s="11"/>
+      <c r="H391" s="10"/>
       <c r="AS391" s="9"/>
     </row>
     <row r="392">
-      <c r="H392" s="11"/>
+      <c r="H392" s="10"/>
       <c r="AS392" s="9"/>
     </row>
     <row r="393">
-      <c r="H393" s="11"/>
+      <c r="H393" s="10"/>
       <c r="AS393" s="9"/>
     </row>
     <row r="394">
-      <c r="H394" s="11"/>
+      <c r="H394" s="10"/>
       <c r="AS394" s="9"/>
     </row>
     <row r="395">
-      <c r="H395" s="11"/>
+      <c r="H395" s="10"/>
       <c r="AS395" s="9"/>
     </row>
     <row r="396">
-      <c r="H396" s="11"/>
+      <c r="H396" s="10"/>
       <c r="AS396" s="9"/>
     </row>
     <row r="397">
-      <c r="H397" s="11"/>
+      <c r="H397" s="10"/>
       <c r="AS397" s="9"/>
     </row>
     <row r="398">
-      <c r="H398" s="11"/>
+      <c r="H398" s="10"/>
       <c r="AS398" s="9"/>
     </row>
     <row r="399">
-      <c r="H399" s="11"/>
+      <c r="H399" s="10"/>
       <c r="AS399" s="9"/>
     </row>
     <row r="400">
-      <c r="H400" s="11"/>
+      <c r="H400" s="10"/>
       <c r="AS400" s="9"/>
     </row>
     <row r="401">
-      <c r="H401" s="11"/>
+      <c r="H401" s="10"/>
       <c r="AS401" s="9"/>
     </row>
     <row r="402">
-      <c r="H402" s="11"/>
+      <c r="H402" s="10"/>
       <c r="AS402" s="9"/>
     </row>
     <row r="403">
-      <c r="H403" s="11"/>
+      <c r="H403" s="10"/>
       <c r="AS403" s="9"/>
     </row>
     <row r="404">
-      <c r="H404" s="11"/>
+      <c r="H404" s="10"/>
       <c r="AS404" s="9"/>
     </row>
     <row r="405">
-      <c r="H405" s="11"/>
+      <c r="H405" s="10"/>
       <c r="AS405" s="9"/>
     </row>
     <row r="406">
-      <c r="H406" s="11"/>
+      <c r="H406" s="10"/>
       <c r="AS406" s="9"/>
     </row>
     <row r="407">
-      <c r="H407" s="11"/>
+      <c r="H407" s="10"/>
       <c r="AS407" s="9"/>
     </row>
     <row r="408">
-      <c r="H408" s="11"/>
+      <c r="H408" s="10"/>
       <c r="AS408" s="9"/>
     </row>
     <row r="409">
-      <c r="H409" s="11"/>
+      <c r="H409" s="10"/>
       <c r="AS409" s="9"/>
     </row>
     <row r="410">
-      <c r="H410" s="11"/>
+      <c r="H410" s="10"/>
       <c r="AS410" s="9"/>
     </row>
     <row r="411">
-      <c r="H411" s="11"/>
+      <c r="H411" s="10"/>
       <c r="AS411" s="9"/>
     </row>
     <row r="412">
-      <c r="H412" s="11"/>
+      <c r="H412" s="10"/>
       <c r="AS412" s="9"/>
     </row>
     <row r="413">
-      <c r="H413" s="11"/>
+      <c r="H413" s="10"/>
       <c r="AS413" s="9"/>
     </row>
     <row r="414">
-      <c r="H414" s="11"/>
+      <c r="H414" s="10"/>
       <c r="AS414" s="9"/>
     </row>
     <row r="415">
-      <c r="H415" s="11"/>
+      <c r="H415" s="10"/>
       <c r="AS415" s="9"/>
     </row>
     <row r="416">
-      <c r="H416" s="11"/>
+      <c r="H416" s="10"/>
       <c r="AS416" s="9"/>
     </row>
     <row r="417">
-      <c r="H417" s="11"/>
+      <c r="H417" s="10"/>
       <c r="AS417" s="9"/>
     </row>
     <row r="418">
-      <c r="H418" s="11"/>
+      <c r="H418" s="10"/>
       <c r="AS418" s="9"/>
     </row>
     <row r="419">
-      <c r="H419" s="11"/>
+      <c r="H419" s="10"/>
       <c r="AS419" s="9"/>
     </row>
     <row r="420">
-      <c r="H420" s="11"/>
+      <c r="H420" s="10"/>
       <c r="AS420" s="9"/>
     </row>
     <row r="421">
-      <c r="H421" s="11"/>
+      <c r="H421" s="10"/>
       <c r="AS421" s="9"/>
     </row>
     <row r="422">
-      <c r="H422" s="11"/>
+      <c r="H422" s="10"/>
       <c r="AS422" s="9"/>
     </row>
     <row r="423">
-      <c r="H423" s="11"/>
+      <c r="H423" s="10"/>
       <c r="AS423" s="9"/>
     </row>
     <row r="424">
-      <c r="H424" s="11"/>
+      <c r="H424" s="10"/>
       <c r="AS424" s="9"/>
     </row>
     <row r="425">
-      <c r="H425" s="11"/>
+      <c r="H425" s="10"/>
       <c r="AS425" s="9"/>
     </row>
     <row r="426">
-      <c r="H426" s="11"/>
+      <c r="H426" s="10"/>
       <c r="AS426" s="9"/>
     </row>
     <row r="427">
-      <c r="H427" s="11"/>
+      <c r="H427" s="10"/>
       <c r="AS427" s="9"/>
     </row>
     <row r="428">
-      <c r="H428" s="11"/>
+      <c r="H428" s="10"/>
       <c r="AS428" s="9"/>
     </row>
     <row r="429">
-      <c r="H429" s="11"/>
+      <c r="H429" s="10"/>
       <c r="AS429" s="9"/>
     </row>
     <row r="430">
-      <c r="H430" s="11"/>
+      <c r="H430" s="10"/>
       <c r="AS430" s="9"/>
     </row>
     <row r="431">
-      <c r="H431" s="11"/>
+      <c r="H431" s="10"/>
       <c r="AS431" s="9"/>
     </row>
     <row r="432">
-      <c r="H432" s="11"/>
+      <c r="H432" s="10"/>
       <c r="AS432" s="9"/>
     </row>
     <row r="433">
-      <c r="H433" s="11"/>
+      <c r="H433" s="10"/>
       <c r="AS433" s="9"/>
     </row>
     <row r="434">
-      <c r="H434" s="11"/>
+      <c r="H434" s="10"/>
       <c r="AS434" s="9"/>
     </row>
     <row r="435">
-      <c r="H435" s="11"/>
+      <c r="H435" s="10"/>
       <c r="AS435" s="9"/>
     </row>
     <row r="436">
-      <c r="H436" s="11"/>
+      <c r="H436" s="10"/>
       <c r="AS436" s="9"/>
     </row>
     <row r="437">
-      <c r="H437" s="11"/>
+      <c r="H437" s="10"/>
       <c r="AS437" s="9"/>
     </row>
     <row r="438">
-      <c r="H438" s="11"/>
+      <c r="H438" s="10"/>
       <c r="AS438" s="9"/>
     </row>
     <row r="439">
-      <c r="H439" s="11"/>
+      <c r="H439" s="10"/>
       <c r="AS439" s="9"/>
     </row>
     <row r="440">
-      <c r="H440" s="11"/>
+      <c r="H440" s="10"/>
       <c r="AS440" s="9"/>
     </row>
     <row r="441">
-      <c r="H441" s="11"/>
+      <c r="H441" s="10"/>
       <c r="AS441" s="9"/>
     </row>
     <row r="442">
-      <c r="H442" s="11"/>
+      <c r="H442" s="10"/>
       <c r="AS442" s="9"/>
     </row>
     <row r="443">
-      <c r="H443" s="11"/>
+      <c r="H443" s="10"/>
       <c r="AS443" s="9"/>
     </row>
     <row r="444">
-      <c r="H444" s="11"/>
+      <c r="H444" s="10"/>
       <c r="AS444" s="9"/>
     </row>
     <row r="445">
-      <c r="H445" s="11"/>
+      <c r="H445" s="10"/>
       <c r="AS445" s="9"/>
     </row>
     <row r="446">
-      <c r="H446" s="11"/>
+      <c r="H446" s="10"/>
       <c r="AS446" s="9"/>
     </row>
     <row r="447">
-      <c r="H447" s="11"/>
+      <c r="H447" s="10"/>
       <c r="AS447" s="9"/>
     </row>
     <row r="448">
-      <c r="H448" s="11"/>
+      <c r="H448" s="10"/>
       <c r="AS448" s="9"/>
     </row>
     <row r="449">
-      <c r="H449" s="11"/>
+      <c r="H449" s="10"/>
       <c r="AS449" s="9"/>
     </row>
     <row r="450">
-      <c r="H450" s="11"/>
+      <c r="H450" s="10"/>
       <c r="AS450" s="9"/>
     </row>
     <row r="451">
-      <c r="H451" s="11"/>
+      <c r="H451" s="10"/>
       <c r="AS451" s="9"/>
     </row>
     <row r="452">
-      <c r="H452" s="11"/>
+      <c r="H452" s="10"/>
       <c r="AS452" s="9"/>
     </row>
     <row r="453">
-      <c r="H453" s="11"/>
+      <c r="H453" s="10"/>
       <c r="AS453" s="9"/>
     </row>
     <row r="454">
-      <c r="H454" s="11"/>
+      <c r="H454" s="10"/>
       <c r="AS454" s="9"/>
     </row>
     <row r="455">
-      <c r="H455" s="11"/>
+      <c r="H455" s="10"/>
       <c r="AS455" s="9"/>
     </row>
     <row r="456">
-      <c r="H456" s="11"/>
+      <c r="H456" s="10"/>
       <c r="AS456" s="9"/>
     </row>
     <row r="457">
-      <c r="H457" s="11"/>
+      <c r="H457" s="10"/>
       <c r="AS457" s="9"/>
     </row>
     <row r="458">
-      <c r="H458" s="11"/>
+      <c r="H458" s="10"/>
       <c r="AS458" s="9"/>
     </row>
     <row r="459">
-      <c r="H459" s="11"/>
+      <c r="H459" s="10"/>
       <c r="AS459" s="9"/>
     </row>
     <row r="460">
-      <c r="H460" s="11"/>
+      <c r="H460" s="10"/>
       <c r="AS460" s="9"/>
     </row>
     <row r="461">
-      <c r="H461" s="11"/>
+      <c r="H461" s="10"/>
       <c r="AS461" s="9"/>
     </row>
     <row r="462">
-      <c r="H462" s="11"/>
+      <c r="H462" s="10"/>
       <c r="AS462" s="9"/>
     </row>
     <row r="463">
-      <c r="H463" s="11"/>
+      <c r="H463" s="10"/>
       <c r="AS463" s="9"/>
     </row>
     <row r="464">
-      <c r="H464" s="11"/>
+      <c r="H464" s="10"/>
       <c r="AS464" s="9"/>
     </row>
     <row r="465">
-      <c r="H465" s="11"/>
+      <c r="H465" s="10"/>
       <c r="AS465" s="9"/>
     </row>
     <row r="466">
-      <c r="H466" s="11"/>
+      <c r="H466" s="10"/>
       <c r="AS466" s="9"/>
     </row>
     <row r="467">
-      <c r="H467" s="11"/>
+      <c r="H467" s="10"/>
       <c r="AS467" s="9"/>
     </row>
     <row r="468">
-      <c r="H468" s="11"/>
+      <c r="H468" s="10"/>
       <c r="AS468" s="9"/>
     </row>
     <row r="469">
-      <c r="H469" s="11"/>
+      <c r="H469" s="10"/>
       <c r="AS469" s="9"/>
     </row>
     <row r="470">
-      <c r="H470" s="11"/>
+      <c r="H470" s="10"/>
       <c r="AS470" s="9"/>
     </row>
     <row r="471">
-      <c r="H471" s="11"/>
+      <c r="H471" s="10"/>
       <c r="AS471" s="9"/>
     </row>
     <row r="472">
-      <c r="H472" s="11"/>
+      <c r="H472" s="10"/>
       <c r="AS472" s="9"/>
     </row>
     <row r="473">
-      <c r="H473" s="11"/>
+      <c r="H473" s="10"/>
       <c r="AS473" s="9"/>
     </row>
     <row r="474">
-      <c r="H474" s="11"/>
+      <c r="H474" s="10"/>
       <c r="AS474" s="9"/>
     </row>
     <row r="475">
-      <c r="H475" s="11"/>
+      <c r="H475" s="10"/>
       <c r="AS475" s="9"/>
     </row>
     <row r="476">
-      <c r="H476" s="11"/>
+      <c r="H476" s="10"/>
       <c r="AS476" s="9"/>
     </row>
     <row r="477">
-      <c r="H477" s="11"/>
+      <c r="H477" s="10"/>
       <c r="AS477" s="9"/>
     </row>
     <row r="478">
-      <c r="H478" s="11"/>
+      <c r="H478" s="10"/>
       <c r="AS478" s="9"/>
     </row>
     <row r="479">
-      <c r="H479" s="11"/>
+      <c r="H479" s="10"/>
       <c r="AS479" s="9"/>
     </row>
     <row r="480">
-      <c r="H480" s="11"/>
+      <c r="H480" s="10"/>
       <c r="AS480" s="9"/>
     </row>
     <row r="481">
-      <c r="H481" s="11"/>
+      <c r="H481" s="10"/>
       <c r="AS481" s="9"/>
     </row>
     <row r="482">
-      <c r="H482" s="11"/>
+      <c r="H482" s="10"/>
       <c r="AS482" s="9"/>
     </row>
     <row r="483">
-      <c r="H483" s="11"/>
+      <c r="H483" s="10"/>
       <c r="AS483" s="9"/>
     </row>
     <row r="484">
-      <c r="H484" s="11"/>
+      <c r="H484" s="10"/>
       <c r="AS484" s="9"/>
     </row>
     <row r="485">
-      <c r="H485" s="11"/>
+      <c r="H485" s="10"/>
       <c r="AS485" s="9"/>
     </row>
     <row r="486">
-      <c r="H486" s="11"/>
+      <c r="H486" s="10"/>
       <c r="AS486" s="9"/>
     </row>
     <row r="487">
-      <c r="H487" s="11"/>
+      <c r="H487" s="10"/>
       <c r="AS487" s="9"/>
     </row>
     <row r="488">
-      <c r="H488" s="11"/>
+      <c r="H488" s="10"/>
       <c r="AS488" s="9"/>
     </row>
     <row r="489">
-      <c r="H489" s="11"/>
+      <c r="H489" s="10"/>
       <c r="AS489" s="9"/>
     </row>
     <row r="490">
-      <c r="H490" s="11"/>
+      <c r="H490" s="10"/>
       <c r="AS490" s="9"/>
     </row>
     <row r="491">
-      <c r="H491" s="11"/>
+      <c r="H491" s="10"/>
       <c r="AS491" s="9"/>
     </row>
     <row r="492">
-      <c r="H492" s="11"/>
+      <c r="H492" s="10"/>
       <c r="AS492" s="9"/>
     </row>
     <row r="493">
-      <c r="H493" s="11"/>
+      <c r="H493" s="10"/>
       <c r="AS493" s="9"/>
     </row>
     <row r="494">
-      <c r="H494" s="11"/>
+      <c r="H494" s="10"/>
       <c r="AS494" s="9"/>
     </row>
     <row r="495">
-      <c r="H495" s="11"/>
+      <c r="H495" s="10"/>
       <c r="AS495" s="9"/>
     </row>
     <row r="496">
-      <c r="H496" s="11"/>
+      <c r="H496" s="10"/>
       <c r="AS496" s="9"/>
     </row>
     <row r="497">
-      <c r="H497" s="11"/>
+      <c r="H497" s="10"/>
       <c r="AS497" s="9"/>
     </row>
     <row r="498">
-      <c r="H498" s="11"/>
+      <c r="H498" s="10"/>
       <c r="AS498" s="9"/>
     </row>
     <row r="499">
-      <c r="H499" s="11"/>
+      <c r="H499" s="10"/>
       <c r="AS499" s="9"/>
     </row>
     <row r="500">
-      <c r="H500" s="11"/>
+      <c r="H500" s="10"/>
       <c r="AS500" s="9"/>
     </row>
     <row r="501">
-      <c r="H501" s="11"/>
+      <c r="H501" s="10"/>
       <c r="AS501" s="9"/>
     </row>
     <row r="502">
-      <c r="H502" s="11"/>
+      <c r="H502" s="10"/>
       <c r="AS502" s="9"/>
     </row>
     <row r="503">
-      <c r="H503" s="11"/>
+      <c r="H503" s="10"/>
       <c r="AS503" s="9"/>
     </row>
     <row r="504">
-      <c r="H504" s="11"/>
+      <c r="H504" s="10"/>
       <c r="AS504" s="9"/>
     </row>
     <row r="505">
-      <c r="H505" s="11"/>
+      <c r="H505" s="10"/>
       <c r="AS505" s="9"/>
     </row>
     <row r="506">
-      <c r="H506" s="11"/>
+      <c r="H506" s="10"/>
       <c r="AS506" s="9"/>
     </row>
     <row r="507">
-      <c r="H507" s="11"/>
+      <c r="H507" s="10"/>
       <c r="AS507" s="9"/>
     </row>
     <row r="508">
-      <c r="H508" s="11"/>
+      <c r="H508" s="10"/>
       <c r="AS508" s="9"/>
     </row>
     <row r="509">
-      <c r="H509" s="11"/>
+      <c r="H509" s="10"/>
       <c r="AS509" s="9"/>
     </row>
     <row r="510">
-      <c r="H510" s="11"/>
+      <c r="H510" s="10"/>
       <c r="AS510" s="9"/>
     </row>
     <row r="511">
-      <c r="H511" s="11"/>
+      <c r="H511" s="10"/>
       <c r="AS511" s="9"/>
     </row>
     <row r="512">
-      <c r="H512" s="11"/>
+      <c r="H512" s="10"/>
       <c r="AS512" s="9"/>
     </row>
     <row r="513">
-      <c r="H513" s="11"/>
+      <c r="H513" s="10"/>
       <c r="AS513" s="9"/>
     </row>
     <row r="514">
-      <c r="H514" s="11"/>
+      <c r="H514" s="10"/>
       <c r="AS514" s="9"/>
     </row>
     <row r="515">
-      <c r="H515" s="11"/>
+      <c r="H515" s="10"/>
       <c r="AS515" s="9"/>
     </row>
     <row r="516">
-      <c r="H516" s="11"/>
+      <c r="H516" s="10"/>
       <c r="AS516" s="9"/>
     </row>
     <row r="517">
-      <c r="H517" s="11"/>
+      <c r="H517" s="10"/>
       <c r="AS517" s="9"/>
     </row>
     <row r="518">
-      <c r="H518" s="11"/>
+      <c r="H518" s="10"/>
       <c r="AS518" s="9"/>
     </row>
     <row r="519">
-      <c r="H519" s="11"/>
+      <c r="H519" s="10"/>
       <c r="AS519" s="9"/>
     </row>
     <row r="520">
-      <c r="H520" s="11"/>
+      <c r="H520" s="10"/>
       <c r="AS520" s="9"/>
     </row>
     <row r="521">
-      <c r="H521" s="11"/>
+      <c r="H521" s="10"/>
       <c r="AS521" s="9"/>
     </row>
     <row r="522">
-      <c r="H522" s="11"/>
+      <c r="H522" s="10"/>
       <c r="AS522" s="9"/>
     </row>
     <row r="523">
-      <c r="H523" s="11"/>
+      <c r="H523" s="10"/>
       <c r="AS523" s="9"/>
     </row>
     <row r="524">
-      <c r="H524" s="11"/>
+      <c r="H524" s="10"/>
       <c r="AS524" s="9"/>
     </row>
     <row r="525">
-      <c r="H525" s="11"/>
+      <c r="H525" s="10"/>
       <c r="AS525" s="9"/>
     </row>
     <row r="526">
-      <c r="H526" s="11"/>
+      <c r="H526" s="10"/>
       <c r="AS526" s="9"/>
     </row>
     <row r="527">
-      <c r="H527" s="11"/>
+      <c r="H527" s="10"/>
       <c r="AS527" s="9"/>
     </row>
     <row r="528">
-      <c r="H528" s="11"/>
+      <c r="H528" s="10"/>
       <c r="AS528" s="9"/>
     </row>
     <row r="529">
-      <c r="H529" s="11"/>
+      <c r="H529" s="10"/>
       <c r="AS529" s="9"/>
     </row>
     <row r="530">
-      <c r="H530" s="11"/>
+      <c r="H530" s="10"/>
       <c r="AS530" s="9"/>
     </row>
     <row r="531">
-      <c r="H531" s="11"/>
+      <c r="H531" s="10"/>
       <c r="AS531" s="9"/>
     </row>
     <row r="532">
-      <c r="H532" s="11"/>
+      <c r="H532" s="10"/>
       <c r="AS532" s="9"/>
     </row>
     <row r="533">
-      <c r="H533" s="11"/>
+      <c r="H533" s="10"/>
       <c r="AS533" s="9"/>
     </row>
     <row r="534">
-      <c r="H534" s="11"/>
+      <c r="H534" s="10"/>
       <c r="AS534" s="9"/>
     </row>
     <row r="535">
-      <c r="H535" s="11"/>
+      <c r="H535" s="10"/>
       <c r="AS535" s="9"/>
     </row>
     <row r="536">
-      <c r="H536" s="11"/>
+      <c r="H536" s="10"/>
       <c r="AS536" s="9"/>
     </row>
     <row r="537">
-      <c r="H537" s="11"/>
+      <c r="H537" s="10"/>
       <c r="AS537" s="9"/>
     </row>
     <row r="538">
-      <c r="H538" s="11"/>
+      <c r="H538" s="10"/>
       <c r="AS538" s="9"/>
     </row>
     <row r="539">
-      <c r="H539" s="11"/>
+      <c r="H539" s="10"/>
       <c r="AS539" s="9"/>
     </row>
     <row r="540">
-      <c r="H540" s="11"/>
+      <c r="H540" s="10"/>
       <c r="AS540" s="9"/>
     </row>
     <row r="541">
-      <c r="H541" s="11"/>
+      <c r="H541" s="10"/>
       <c r="AS541" s="9"/>
     </row>
     <row r="542">
-      <c r="H542" s="11"/>
+      <c r="H542" s="10"/>
       <c r="AS542" s="9"/>
     </row>
     <row r="543">
-      <c r="H543" s="11"/>
+      <c r="H543" s="10"/>
       <c r="AS543" s="9"/>
     </row>
     <row r="544">
-      <c r="H544" s="11"/>
+      <c r="H544" s="10"/>
       <c r="AS544" s="9"/>
     </row>
     <row r="545">
-      <c r="H545" s="11"/>
+      <c r="H545" s="10"/>
       <c r="AS545" s="9"/>
     </row>
     <row r="546">
-      <c r="H546" s="11"/>
+      <c r="H546" s="10"/>
       <c r="AS546" s="9"/>
     </row>
     <row r="547">
-      <c r="H547" s="11"/>
+      <c r="H547" s="10"/>
       <c r="AS547" s="9"/>
     </row>
     <row r="548">
-      <c r="H548" s="11"/>
+      <c r="H548" s="10"/>
       <c r="AS548" s="9"/>
     </row>
     <row r="549">
-      <c r="H549" s="11"/>
+      <c r="H549" s="10"/>
       <c r="AS549" s="9"/>
     </row>
     <row r="550">
-      <c r="H550" s="11"/>
+      <c r="H550" s="10"/>
       <c r="AS550" s="9"/>
     </row>
     <row r="551">
-      <c r="H551" s="11"/>
+      <c r="H551" s="10"/>
       <c r="AS551" s="9"/>
     </row>
     <row r="552">
-      <c r="H552" s="11"/>
+      <c r="H552" s="10"/>
       <c r="AS552" s="9"/>
     </row>
     <row r="553">
-      <c r="H553" s="11"/>
+      <c r="H553" s="10"/>
       <c r="AS553" s="9"/>
     </row>
     <row r="554">
-      <c r="H554" s="11"/>
+      <c r="H554" s="10"/>
       <c r="AS554" s="9"/>
     </row>
     <row r="555">
-      <c r="H555" s="11"/>
+      <c r="H555" s="10"/>
       <c r="AS555" s="9"/>
     </row>
     <row r="556">
-      <c r="H556" s="11"/>
+      <c r="H556" s="10"/>
       <c r="AS556" s="9"/>
     </row>
     <row r="557">
-      <c r="H557" s="11"/>
+      <c r="H557" s="10"/>
       <c r="AS557" s="9"/>
     </row>
     <row r="558">
-      <c r="H558" s="11"/>
+      <c r="H558" s="10"/>
       <c r="AS558" s="9"/>
     </row>
     <row r="559">
-      <c r="H559" s="11"/>
+      <c r="H559" s="10"/>
       <c r="AS559" s="9"/>
     </row>
     <row r="560">
-      <c r="H560" s="11"/>
+      <c r="H560" s="10"/>
       <c r="AS560" s="9"/>
     </row>
     <row r="561">
-      <c r="H561" s="11"/>
+      <c r="H561" s="10"/>
       <c r="AS561" s="9"/>
     </row>
     <row r="562">
-      <c r="H562" s="11"/>
+      <c r="H562" s="10"/>
       <c r="AS562" s="9"/>
     </row>
     <row r="563">
-      <c r="H563" s="11"/>
+      <c r="H563" s="10"/>
       <c r="AS563" s="9"/>
     </row>
     <row r="564">
-      <c r="H564" s="11"/>
+      <c r="H564" s="10"/>
       <c r="AS564" s="9"/>
     </row>
     <row r="565">
-      <c r="H565" s="11"/>
+      <c r="H565" s="10"/>
       <c r="AS565" s="9"/>
     </row>
     <row r="566">
-      <c r="H566" s="11"/>
+      <c r="H566" s="10"/>
       <c r="AS566" s="9"/>
     </row>
     <row r="567">
-      <c r="H567" s="11"/>
+      <c r="H567" s="10"/>
       <c r="AS567" s="9"/>
     </row>
     <row r="568">
-      <c r="H568" s="11"/>
+      <c r="H568" s="10"/>
       <c r="AS568" s="9"/>
     </row>
     <row r="569">
-      <c r="H569" s="11"/>
+      <c r="H569" s="10"/>
       <c r="AS569" s="9"/>
     </row>
     <row r="570">
-      <c r="H570" s="11"/>
+      <c r="H570" s="10"/>
       <c r="AS570" s="9"/>
     </row>
     <row r="571">
-      <c r="H571" s="11"/>
+      <c r="H571" s="10"/>
       <c r="AS571" s="9"/>
     </row>
     <row r="572">
-      <c r="H572" s="11"/>
+      <c r="H572" s="10"/>
       <c r="AS572" s="9"/>
     </row>
     <row r="573">
-      <c r="H573" s="11"/>
+      <c r="H573" s="10"/>
       <c r="AS573" s="9"/>
     </row>
     <row r="574">
-      <c r="H574" s="11"/>
+      <c r="H574" s="10"/>
       <c r="AS574" s="9"/>
     </row>
     <row r="575">
-      <c r="H575" s="11"/>
+      <c r="H575" s="10"/>
       <c r="AS575" s="9"/>
     </row>
     <row r="576">
-      <c r="H576" s="11"/>
+      <c r="H576" s="10"/>
       <c r="AS576" s="9"/>
     </row>
     <row r="577">
-      <c r="H577" s="11"/>
+      <c r="H577" s="10"/>
       <c r="AS577" s="9"/>
     </row>
     <row r="578">
-      <c r="H578" s="11"/>
+      <c r="H578" s="10"/>
       <c r="AS578" s="9"/>
     </row>
     <row r="579">
-      <c r="H579" s="11"/>
+      <c r="H579" s="10"/>
       <c r="AS579" s="9"/>
     </row>
     <row r="580">
-      <c r="H580" s="11"/>
+      <c r="H580" s="10"/>
       <c r="AS580" s="9"/>
     </row>
     <row r="581">
-      <c r="H581" s="11"/>
+      <c r="H581" s="10"/>
       <c r="AS581" s="9"/>
     </row>
     <row r="582">
-      <c r="H582" s="11"/>
+      <c r="H582" s="10"/>
       <c r="AS582" s="9"/>
     </row>
     <row r="583">
-      <c r="H583" s="11"/>
+      <c r="H583" s="10"/>
       <c r="AS583" s="9"/>
     </row>
     <row r="584">
-      <c r="H584" s="11"/>
+      <c r="H584" s="10"/>
       <c r="AS584" s="9"/>
     </row>
     <row r="585">
-      <c r="H585" s="11"/>
+      <c r="H585" s="10"/>
       <c r="AS585" s="9"/>
     </row>
     <row r="586">
-      <c r="H586" s="11"/>
+      <c r="H586" s="10"/>
       <c r="AS586" s="9"/>
     </row>
     <row r="587">
-      <c r="H587" s="11"/>
+      <c r="H587" s="10"/>
       <c r="AS587" s="9"/>
     </row>
     <row r="588">
-      <c r="H588" s="11"/>
+      <c r="H588" s="10"/>
       <c r="AS588" s="9"/>
     </row>
     <row r="589">
-      <c r="H589" s="11"/>
+      <c r="H589" s="10"/>
       <c r="AS589" s="9"/>
     </row>
     <row r="590">
-      <c r="H590" s="11"/>
+      <c r="H590" s="10"/>
       <c r="AS590" s="9"/>
     </row>
     <row r="591">
-      <c r="H591" s="11"/>
+      <c r="H591" s="10"/>
       <c r="AS591" s="9"/>
     </row>
     <row r="592">
-      <c r="H592" s="11"/>
+      <c r="H592" s="10"/>
       <c r="AS592" s="9"/>
     </row>
     <row r="593">
-      <c r="H593" s="11"/>
+      <c r="H593" s="10"/>
       <c r="AS593" s="9"/>
     </row>
     <row r="594">
-      <c r="H594" s="11"/>
+      <c r="H594" s="10"/>
       <c r="AS594" s="9"/>
     </row>
     <row r="595">
-      <c r="H595" s="11"/>
+      <c r="H595" s="10"/>
       <c r="AS595" s="9"/>
     </row>
     <row r="596">
-      <c r="H596" s="11"/>
+      <c r="H596" s="10"/>
       <c r="AS596" s="9"/>
     </row>
     <row r="597">
-      <c r="H597" s="11"/>
+      <c r="H597" s="10"/>
       <c r="AS597" s="9"/>
     </row>
     <row r="598">
-      <c r="H598" s="11"/>
+      <c r="H598" s="10"/>
       <c r="AS598" s="9"/>
     </row>
     <row r="599">
-      <c r="H599" s="11"/>
+      <c r="H599" s="10"/>
       <c r="AS599" s="9"/>
     </row>
     <row r="600">
-      <c r="H600" s="11"/>
+      <c r="H600" s="10"/>
       <c r="AS600" s="9"/>
     </row>
     <row r="601">
-      <c r="H601" s="11"/>
+      <c r="H601" s="10"/>
       <c r="AS601" s="9"/>
     </row>
     <row r="602">
-      <c r="H602" s="11"/>
+      <c r="H602" s="10"/>
       <c r="AS602" s="9"/>
     </row>
     <row r="603">
-      <c r="H603" s="11"/>
+      <c r="H603" s="10"/>
       <c r="AS603" s="9"/>
     </row>
     <row r="604">
-      <c r="H604" s="11"/>
+      <c r="H604" s="10"/>
       <c r="AS604" s="9"/>
     </row>
     <row r="605">
-      <c r="H605" s="11"/>
+      <c r="H605" s="10"/>
       <c r="AS605" s="9"/>
     </row>
     <row r="606">
-      <c r="H606" s="11"/>
+      <c r="H606" s="10"/>
       <c r="AS606" s="9"/>
     </row>
     <row r="607">
-      <c r="H607" s="11"/>
+      <c r="H607" s="10"/>
       <c r="AS607" s="9"/>
     </row>
     <row r="608">
-      <c r="H608" s="11"/>
+      <c r="H608" s="10"/>
       <c r="AS608" s="9"/>
     </row>
     <row r="609">
-      <c r="H609" s="11"/>
+      <c r="H609" s="10"/>
       <c r="AS609" s="9"/>
     </row>
     <row r="610">
-      <c r="H610" s="11"/>
+      <c r="H610" s="10"/>
       <c r="AS610" s="9"/>
     </row>
     <row r="611">
-      <c r="H611" s="11"/>
+      <c r="H611" s="10"/>
       <c r="AS611" s="9"/>
     </row>
     <row r="612">
-      <c r="H612" s="11"/>
+      <c r="H612" s="10"/>
       <c r="AS612" s="9"/>
     </row>
     <row r="613">
-      <c r="H613" s="11"/>
+      <c r="H613" s="10"/>
       <c r="AS613" s="9"/>
     </row>
     <row r="614">
-      <c r="H614" s="11"/>
+      <c r="H614" s="10"/>
       <c r="AS614" s="9"/>
     </row>
     <row r="615">
-      <c r="H615" s="11"/>
+      <c r="H615" s="10"/>
       <c r="AS615" s="9"/>
     </row>
     <row r="616">
-      <c r="H616" s="11"/>
+      <c r="H616" s="10"/>
       <c r="AS616" s="9"/>
     </row>
     <row r="617">
-      <c r="H617" s="11"/>
+      <c r="H617" s="10"/>
       <c r="AS617" s="9"/>
     </row>
     <row r="618">
-      <c r="H618" s="11"/>
+      <c r="H618" s="10"/>
       <c r="AS618" s="9"/>
     </row>
     <row r="619">
-      <c r="H619" s="11"/>
+      <c r="H619" s="10"/>
       <c r="AS619" s="9"/>
     </row>
     <row r="620">
-      <c r="H620" s="11"/>
+      <c r="H620" s="10"/>
       <c r="AS620" s="9"/>
     </row>
     <row r="621">
-      <c r="H621" s="11"/>
+      <c r="H621" s="10"/>
       <c r="AS621" s="9"/>
     </row>
     <row r="622">
-      <c r="H622" s="11"/>
+      <c r="H622" s="10"/>
       <c r="AS622" s="9"/>
     </row>
     <row r="623">
-      <c r="H623" s="11"/>
+      <c r="H623" s="10"/>
       <c r="AS623" s="9"/>
     </row>
     <row r="624">
-      <c r="H624" s="11"/>
+      <c r="H624" s="10"/>
       <c r="AS624" s="9"/>
     </row>
     <row r="625">
-      <c r="H625" s="11"/>
+      <c r="H625" s="10"/>
       <c r="AS625" s="9"/>
     </row>
     <row r="626">
-      <c r="H626" s="11"/>
+      <c r="H626" s="10"/>
       <c r="AS626" s="9"/>
     </row>
     <row r="627">
-      <c r="H627" s="11"/>
+      <c r="H627" s="10"/>
       <c r="AS627" s="9"/>
     </row>
     <row r="628">
-      <c r="H628" s="11"/>
+      <c r="H628" s="10"/>
       <c r="AS628" s="9"/>
     </row>
     <row r="629">
-      <c r="H629" s="11"/>
+      <c r="H629" s="10"/>
       <c r="AS629" s="9"/>
     </row>
     <row r="630">
-      <c r="H630" s="11"/>
+      <c r="H630" s="10"/>
       <c r="AS630" s="9"/>
     </row>
     <row r="631">
-      <c r="H631" s="11"/>
+      <c r="H631" s="10"/>
       <c r="AS631" s="9"/>
     </row>
     <row r="632">
-      <c r="H632" s="11"/>
+      <c r="H632" s="10"/>
       <c r="AS632" s="9"/>
     </row>
     <row r="633">
-      <c r="H633" s="11"/>
+      <c r="H633" s="10"/>
       <c r="AS633" s="9"/>
     </row>
     <row r="634">
-      <c r="H634" s="11"/>
+      <c r="H634" s="10"/>
       <c r="AS634" s="9"/>
     </row>
     <row r="635">
-      <c r="H635" s="11"/>
+      <c r="H635" s="10"/>
       <c r="AS635" s="9"/>
     </row>
     <row r="636">
-      <c r="H636" s="11"/>
+      <c r="H636" s="10"/>
       <c r="AS636" s="9"/>
     </row>
     <row r="637">
-      <c r="H637" s="11"/>
+      <c r="H637" s="10"/>
       <c r="AS637" s="9"/>
     </row>
     <row r="638">
-      <c r="H638" s="11"/>
+      <c r="H638" s="10"/>
       <c r="AS638" s="9"/>
     </row>
     <row r="639">
-      <c r="H639" s="11"/>
+      <c r="H639" s="10"/>
       <c r="AS639" s="9"/>
     </row>
     <row r="640">
-      <c r="H640" s="11"/>
+      <c r="H640" s="10"/>
       <c r="AS640" s="9"/>
     </row>
     <row r="641">
-      <c r="H641" s="11"/>
+      <c r="H641" s="10"/>
       <c r="AS641" s="9"/>
     </row>
     <row r="642">
-      <c r="H642" s="11"/>
+      <c r="H642" s="10"/>
       <c r="AS642" s="9"/>
     </row>
     <row r="643">
-      <c r="H643" s="11"/>
+      <c r="H643" s="10"/>
       <c r="AS643" s="9"/>
     </row>
     <row r="644">
-      <c r="H644" s="11"/>
+      <c r="H644" s="10"/>
       <c r="AS644" s="9"/>
     </row>
     <row r="645">
-      <c r="H645" s="11"/>
+      <c r="H645" s="10"/>
       <c r="AS645" s="9"/>
     </row>
     <row r="646">
-      <c r="H646" s="11"/>
+      <c r="H646" s="10"/>
       <c r="AS646" s="9"/>
     </row>
     <row r="647">
-      <c r="H647" s="11"/>
+      <c r="H647" s="10"/>
       <c r="AS647" s="9"/>
     </row>
     <row r="648">
-      <c r="H648" s="11"/>
+      <c r="H648" s="10"/>
       <c r="AS648" s="9"/>
     </row>
     <row r="649">
-      <c r="H649" s="11"/>
+      <c r="H649" s="10"/>
       <c r="AS649" s="9"/>
     </row>
     <row r="650">
-      <c r="H650" s="11"/>
+      <c r="H650" s="10"/>
       <c r="AS650" s="9"/>
     </row>
     <row r="651">
-      <c r="H651" s="11"/>
+      <c r="H651" s="10"/>
       <c r="AS651" s="9"/>
     </row>
     <row r="652">
-      <c r="H652" s="11"/>
+      <c r="H652" s="10"/>
       <c r="AS652" s="9"/>
     </row>
     <row r="653">
-      <c r="H653" s="11"/>
+      <c r="H653" s="10"/>
       <c r="AS653" s="9"/>
     </row>
     <row r="654">
-      <c r="H654" s="11"/>
+      <c r="H654" s="10"/>
       <c r="AS654" s="9"/>
     </row>
     <row r="655">
-      <c r="H655" s="11"/>
+      <c r="H655" s="10"/>
       <c r="AS655" s="9"/>
     </row>
     <row r="656">
-      <c r="H656" s="11"/>
+      <c r="H656" s="10"/>
       <c r="AS656" s="9"/>
     </row>
     <row r="657">
-      <c r="H657" s="11"/>
+      <c r="H657" s="10"/>
       <c r="AS657" s="9"/>
     </row>
     <row r="658">
-      <c r="H658" s="11"/>
+      <c r="H658" s="10"/>
       <c r="AS658" s="9"/>
     </row>
     <row r="659">
-      <c r="H659" s="11"/>
+      <c r="H659" s="10"/>
       <c r="AS659" s="9"/>
     </row>
     <row r="660">
-      <c r="H660" s="11"/>
+      <c r="H660" s="10"/>
       <c r="AS660" s="9"/>
     </row>
     <row r="661">
-      <c r="H661" s="11"/>
+      <c r="H661" s="10"/>
       <c r="AS661" s="9"/>
     </row>
     <row r="662">
-      <c r="H662" s="11"/>
+      <c r="H662" s="10"/>
       <c r="AS662" s="9"/>
     </row>
     <row r="663">
-      <c r="H663" s="11"/>
+      <c r="H663" s="10"/>
       <c r="AS663" s="9"/>
     </row>
     <row r="664">
-      <c r="H664" s="11"/>
+      <c r="H664" s="10"/>
       <c r="AS664" s="9"/>
     </row>
     <row r="665">
-      <c r="H665" s="11"/>
+      <c r="H665" s="10"/>
       <c r="AS665" s="9"/>
     </row>
     <row r="666">
-      <c r="H666" s="11"/>
+      <c r="H666" s="10"/>
       <c r="AS666" s="9"/>
     </row>
     <row r="667">
-      <c r="H667" s="11"/>
+      <c r="H667" s="10"/>
       <c r="AS667" s="9"/>
     </row>
     <row r="668">
-      <c r="H668" s="11"/>
+      <c r="H668" s="10"/>
       <c r="AS668" s="9"/>
     </row>
     <row r="669">
-      <c r="H669" s="11"/>
+      <c r="H669" s="10"/>
       <c r="AS669" s="9"/>
     </row>
     <row r="670">
-      <c r="H670" s="11"/>
+      <c r="H670" s="10"/>
       <c r="AS670" s="9"/>
     </row>
     <row r="671">
-      <c r="H671" s="11"/>
+      <c r="H671" s="10"/>
       <c r="AS671" s="9"/>
     </row>
     <row r="672">
-      <c r="H672" s="11"/>
+      <c r="H672" s="10"/>
       <c r="AS672" s="9"/>
     </row>
     <row r="673">
-      <c r="H673" s="11"/>
+      <c r="H673" s="10"/>
       <c r="AS673" s="9"/>
     </row>
     <row r="674">
-      <c r="H674" s="11"/>
+      <c r="H674" s="10"/>
       <c r="AS674" s="9"/>
     </row>
     <row r="675">
-      <c r="H675" s="11"/>
+      <c r="H675" s="10"/>
       <c r="AS675" s="9"/>
     </row>
     <row r="676">
-      <c r="H676" s="11"/>
+      <c r="H676" s="10"/>
       <c r="AS676" s="9"/>
     </row>
     <row r="677">
-      <c r="H677" s="11"/>
+      <c r="H677" s="10"/>
       <c r="AS677" s="9"/>
     </row>
     <row r="678">
-      <c r="H678" s="11"/>
+      <c r="H678" s="10"/>
       <c r="AS678" s="9"/>
     </row>
     <row r="679">
-      <c r="H679" s="11"/>
+      <c r="H679" s="10"/>
       <c r="AS679" s="9"/>
     </row>
     <row r="680">
-      <c r="H680" s="11"/>
+      <c r="H680" s="10"/>
       <c r="AS680" s="9"/>
     </row>
     <row r="681">
-      <c r="H681" s="11"/>
+      <c r="H681" s="10"/>
       <c r="AS681" s="9"/>
     </row>
     <row r="682">
-      <c r="H682" s="11"/>
+      <c r="H682" s="10"/>
       <c r="AS682" s="9"/>
     </row>
     <row r="683">
-      <c r="H683" s="11"/>
+      <c r="H683" s="10"/>
       <c r="AS683" s="9"/>
     </row>
     <row r="684">
-      <c r="H684" s="11"/>
+      <c r="H684" s="10"/>
       <c r="AS684" s="9"/>
     </row>
     <row r="685">
-      <c r="H685" s="11"/>
+      <c r="H685" s="10"/>
       <c r="AS685" s="9"/>
     </row>
     <row r="686">
-      <c r="H686" s="11"/>
+      <c r="H686" s="10"/>
       <c r="AS686" s="9"/>
     </row>
     <row r="687">
-      <c r="H687" s="11"/>
+      <c r="H687" s="10"/>
       <c r="AS687" s="9"/>
     </row>
     <row r="688">
-      <c r="H688" s="11"/>
+      <c r="H688" s="10"/>
       <c r="AS688" s="9"/>
     </row>
     <row r="689">
-      <c r="H689" s="11"/>
+      <c r="H689" s="10"/>
       <c r="AS689" s="9"/>
     </row>
     <row r="690">
-      <c r="H690" s="11"/>
+      <c r="H690" s="10"/>
       <c r="AS690" s="9"/>
     </row>
     <row r="691">
-      <c r="H691" s="11"/>
+      <c r="H691" s="10"/>
       <c r="AS691" s="9"/>
     </row>
     <row r="692">
-      <c r="H692" s="11"/>
+      <c r="H692" s="10"/>
       <c r="AS692" s="9"/>
     </row>
     <row r="693">
-      <c r="H693" s="11"/>
+      <c r="H693" s="10"/>
       <c r="AS693" s="9"/>
     </row>
     <row r="694">
-      <c r="H694" s="11"/>
+      <c r="H694" s="10"/>
       <c r="AS694" s="9"/>
     </row>
     <row r="695">
-      <c r="H695" s="11"/>
+      <c r="H695" s="10"/>
       <c r="AS695" s="9"/>
     </row>
     <row r="696">
-      <c r="H696" s="11"/>
+      <c r="H696" s="10"/>
       <c r="AS696" s="9"/>
     </row>
     <row r="697">
-      <c r="H697" s="11"/>
+      <c r="H697" s="10"/>
       <c r="AS697" s="9"/>
     </row>
     <row r="698">
-      <c r="H698" s="11"/>
+      <c r="H698" s="10"/>
       <c r="AS698" s="9"/>
     </row>
     <row r="699">
-      <c r="H699" s="11"/>
+      <c r="H699" s="10"/>
       <c r="AS699" s="9"/>
     </row>
     <row r="700">
-      <c r="H700" s="11"/>
+      <c r="H700" s="10"/>
       <c r="AS700" s="9"/>
     </row>
     <row r="701">
-      <c r="H701" s="11"/>
+      <c r="H701" s="10"/>
       <c r="AS701" s="9"/>
     </row>
     <row r="702">
-      <c r="H702" s="11"/>
+      <c r="H702" s="10"/>
       <c r="AS702" s="9"/>
     </row>
     <row r="703">
-      <c r="H703" s="11"/>
+      <c r="H703" s="10"/>
       <c r="AS703" s="9"/>
     </row>
     <row r="704">
-      <c r="H704" s="11"/>
+      <c r="H704" s="10"/>
       <c r="AS704" s="9"/>
     </row>
     <row r="705">
-      <c r="H705" s="11"/>
+      <c r="H705" s="10"/>
       <c r="AS705" s="9"/>
     </row>
     <row r="706">
-      <c r="H706" s="11"/>
+      <c r="H706" s="10"/>
       <c r="AS706" s="9"/>
     </row>
     <row r="707">
-      <c r="H707" s="11"/>
+      <c r="H707" s="10"/>
       <c r="AS707" s="9"/>
     </row>
     <row r="708">
-      <c r="H708" s="11"/>
+      <c r="H708" s="10"/>
       <c r="AS708" s="9"/>
     </row>
     <row r="709">
-      <c r="H709" s="11"/>
+      <c r="H709" s="10"/>
       <c r="AS709" s="9"/>
     </row>
     <row r="710">
-      <c r="H710" s="11"/>
+      <c r="H710" s="10"/>
       <c r="AS710" s="9"/>
     </row>
     <row r="711">
-      <c r="H711" s="11"/>
+      <c r="H711" s="10"/>
       <c r="AS711" s="9"/>
     </row>
     <row r="712">
-      <c r="H712" s="11"/>
+      <c r="H712" s="10"/>
       <c r="AS712" s="9"/>
     </row>
     <row r="713">
-      <c r="H713" s="11"/>
+      <c r="H713" s="10"/>
       <c r="AS713" s="9"/>
     </row>
     <row r="714">
-      <c r="H714" s="11"/>
+      <c r="H714" s="10"/>
       <c r="AS714" s="9"/>
     </row>
     <row r="715">
-      <c r="H715" s="11"/>
+      <c r="H715" s="10"/>
       <c r="AS715" s="9"/>
     </row>
     <row r="716">
-      <c r="H716" s="11"/>
+      <c r="H716" s="10"/>
       <c r="AS716" s="9"/>
     </row>
     <row r="717">
-      <c r="H717" s="11"/>
+      <c r="H717" s="10"/>
       <c r="AS717" s="9"/>
     </row>
     <row r="718">
-      <c r="H718" s="11"/>
+      <c r="H718" s="10"/>
       <c r="AS718" s="9"/>
     </row>
     <row r="719">
-      <c r="H719" s="11"/>
+      <c r="H719" s="10"/>
       <c r="AS719" s="9"/>
     </row>
     <row r="720">
-      <c r="H720" s="11"/>
+      <c r="H720" s="10"/>
       <c r="AS720" s="9"/>
     </row>
     <row r="721">
-      <c r="H721" s="11"/>
+      <c r="H721" s="10"/>
       <c r="AS721" s="9"/>
     </row>
     <row r="722">
-      <c r="H722" s="11"/>
+      <c r="H722" s="10"/>
       <c r="AS722" s="9"/>
     </row>
     <row r="723">
-      <c r="H723" s="11"/>
+      <c r="H723" s="10"/>
       <c r="AS723" s="9"/>
     </row>
     <row r="724">
-      <c r="H724" s="11"/>
+      <c r="H724" s="10"/>
       <c r="AS724" s="9"/>
     </row>
     <row r="725">
-      <c r="H725" s="11"/>
+      <c r="H725" s="10"/>
       <c r="AS725" s="9"/>
     </row>
     <row r="726">
-      <c r="H726" s="11"/>
+      <c r="H726" s="10"/>
       <c r="AS726" s="9"/>
     </row>
     <row r="727">
-      <c r="H727" s="11"/>
+      <c r="H727" s="10"/>
       <c r="AS727" s="9"/>
     </row>
     <row r="728">
-      <c r="H728" s="11"/>
+      <c r="H728" s="10"/>
       <c r="AS728" s="9"/>
     </row>
     <row r="729">
-      <c r="H729" s="11"/>
+      <c r="H729" s="10"/>
       <c r="AS729" s="9"/>
     </row>
     <row r="730">
-      <c r="H730" s="11"/>
+      <c r="H730" s="10"/>
       <c r="AS730" s="9"/>
     </row>
     <row r="731">
-      <c r="H731" s="11"/>
+      <c r="H731" s="10"/>
       <c r="AS731" s="9"/>
     </row>
     <row r="732">
-      <c r="H732" s="11"/>
+      <c r="H732" s="10"/>
       <c r="AS732" s="9"/>
     </row>
     <row r="733">
-      <c r="H733" s="11"/>
+      <c r="H733" s="10"/>
       <c r="AS733" s="9"/>
     </row>
     <row r="734">
-      <c r="H734" s="11"/>
+      <c r="H734" s="10"/>
       <c r="AS734" s="9"/>
     </row>
     <row r="735">
-      <c r="H735" s="11"/>
+      <c r="H735" s="10"/>
       <c r="AS735" s="9"/>
     </row>
     <row r="736">
-      <c r="H736" s="11"/>
+      <c r="H736" s="10"/>
       <c r="AS736" s="9"/>
     </row>
     <row r="737">
-      <c r="H737" s="11"/>
+      <c r="H737" s="10"/>
       <c r="AS737" s="9"/>
     </row>
     <row r="738">
-      <c r="H738" s="11"/>
+      <c r="H738" s="10"/>
       <c r="AS738" s="9"/>
     </row>
     <row r="739">
-      <c r="H739" s="11"/>
+      <c r="H739" s="10"/>
       <c r="AS739" s="9"/>
     </row>
     <row r="740">
-      <c r="H740" s="11"/>
+      <c r="H740" s="10"/>
       <c r="AS740" s="9"/>
     </row>
     <row r="741">
-      <c r="H741" s="11"/>
+      <c r="H741" s="10"/>
       <c r="AS741" s="9"/>
     </row>
     <row r="742">
-      <c r="H742" s="11"/>
+      <c r="H742" s="10"/>
       <c r="AS742" s="9"/>
     </row>
     <row r="743">
-      <c r="H743" s="11"/>
+      <c r="H743" s="10"/>
       <c r="AS743" s="9"/>
     </row>
     <row r="744">
-      <c r="H744" s="11"/>
+      <c r="H744" s="10"/>
       <c r="AS744" s="9"/>
     </row>
     <row r="745">
-      <c r="H745" s="11"/>
+      <c r="H745" s="10"/>
       <c r="AS745" s="9"/>
     </row>
     <row r="746">
-      <c r="H746" s="11"/>
+      <c r="H746" s="10"/>
       <c r="AS746" s="9"/>
     </row>
     <row r="747">
-      <c r="H747" s="11"/>
+      <c r="H747" s="10"/>
       <c r="AS747" s="9"/>
     </row>
     <row r="748">
-      <c r="H748" s="11"/>
+      <c r="H748" s="10"/>
       <c r="AS748" s="9"/>
     </row>
     <row r="749">
-      <c r="H749" s="11"/>
+      <c r="H749" s="10"/>
       <c r="AS749" s="9"/>
     </row>
     <row r="750">
-      <c r="H750" s="11"/>
+      <c r="H750" s="10"/>
       <c r="AS750" s="9"/>
     </row>
     <row r="751">
-      <c r="H751" s="11"/>
+      <c r="H751" s="10"/>
       <c r="AS751" s="9"/>
     </row>
     <row r="752">
-      <c r="H752" s="11"/>
+      <c r="H752" s="10"/>
       <c r="AS752" s="9"/>
     </row>
     <row r="753">
-      <c r="H753" s="11"/>
+      <c r="H753" s="10"/>
       <c r="AS753" s="9"/>
     </row>
     <row r="754">
-      <c r="H754" s="11"/>
+      <c r="H754" s="10"/>
       <c r="AS754" s="9"/>
     </row>
     <row r="755">
-      <c r="H755" s="11"/>
+      <c r="H755" s="10"/>
       <c r="AS755" s="9"/>
     </row>
     <row r="756">
-      <c r="H756" s="11"/>
+      <c r="H756" s="10"/>
       <c r="AS756" s="9"/>
     </row>
     <row r="757">
-      <c r="H757" s="11"/>
+      <c r="H757" s="10"/>
       <c r="AS757" s="9"/>
     </row>
     <row r="758">
-      <c r="H758" s="11"/>
+      <c r="H758" s="10"/>
       <c r="AS758" s="9"/>
     </row>
     <row r="759">
-      <c r="H759" s="11"/>
+      <c r="H759" s="10"/>
       <c r="AS759" s="9"/>
     </row>
     <row r="760">
-      <c r="H760" s="11"/>
+      <c r="H760" s="10"/>
       <c r="AS760" s="9"/>
     </row>
     <row r="761">
-      <c r="H761" s="11"/>
+      <c r="H761" s="10"/>
       <c r="AS761" s="9"/>
     </row>
     <row r="762">
-      <c r="H762" s="11"/>
+      <c r="H762" s="10"/>
       <c r="AS762" s="9"/>
     </row>
     <row r="763">
-      <c r="H763" s="11"/>
+      <c r="H763" s="10"/>
       <c r="AS763" s="9"/>
     </row>
     <row r="764">
-      <c r="H764" s="11"/>
+      <c r="H764" s="10"/>
       <c r="AS764" s="9"/>
     </row>
     <row r="765">
-      <c r="H765" s="11"/>
+      <c r="H765" s="10"/>
       <c r="AS765" s="9"/>
     </row>
     <row r="766">
-      <c r="H766" s="11"/>
+      <c r="H766" s="10"/>
       <c r="AS766" s="9"/>
     </row>
     <row r="767">
-      <c r="H767" s="11"/>
+      <c r="H767" s="10"/>
       <c r="AS767" s="9"/>
     </row>
     <row r="768">
-      <c r="H768" s="11"/>
+      <c r="H768" s="10"/>
       <c r="AS768" s="9"/>
     </row>
     <row r="769">
-      <c r="H769" s="11"/>
+      <c r="H769" s="10"/>
       <c r="AS769" s="9"/>
     </row>
     <row r="770">
-      <c r="H770" s="11"/>
+      <c r="H770" s="10"/>
       <c r="AS770" s="9"/>
     </row>
     <row r="771">
-      <c r="H771" s="11"/>
+      <c r="H771" s="10"/>
       <c r="AS771" s="9"/>
     </row>
     <row r="772">
-      <c r="H772" s="11"/>
+      <c r="H772" s="10"/>
       <c r="AS772" s="9"/>
     </row>
     <row r="773">
-      <c r="H773" s="11"/>
+      <c r="H773" s="10"/>
       <c r="AS773" s="9"/>
     </row>
     <row r="774">
-      <c r="H774" s="11"/>
+      <c r="H774" s="10"/>
       <c r="AS774" s="9"/>
     </row>
     <row r="775">
-      <c r="H775" s="11"/>
+      <c r="H775" s="10"/>
       <c r="AS775" s="9"/>
     </row>
     <row r="776">
-      <c r="H776" s="11"/>
+      <c r="H776" s="10"/>
       <c r="AS776" s="9"/>
     </row>
     <row r="777">
-      <c r="H777" s="11"/>
+      <c r="H777" s="10"/>
       <c r="AS777" s="9"/>
     </row>
     <row r="778">
-      <c r="H778" s="11"/>
+      <c r="H778" s="10"/>
       <c r="AS778" s="9"/>
     </row>
     <row r="779">
-      <c r="H779" s="11"/>
+      <c r="H779" s="10"/>
       <c r="AS779" s="9"/>
     </row>
     <row r="780">
-      <c r="H780" s="11"/>
+      <c r="H780" s="10"/>
       <c r="AS780" s="9"/>
     </row>
     <row r="781">
-      <c r="H781" s="11"/>
+      <c r="H781" s="10"/>
       <c r="AS781" s="9"/>
     </row>
     <row r="782">
-      <c r="H782" s="11"/>
+      <c r="H782" s="10"/>
       <c r="AS782" s="9"/>
     </row>
     <row r="783">
-      <c r="H783" s="11"/>
+      <c r="H783" s="10"/>
       <c r="AS783" s="9"/>
     </row>
     <row r="784">
-      <c r="H784" s="11"/>
+      <c r="H784" s="10"/>
       <c r="AS784" s="9"/>
     </row>
     <row r="785">
-      <c r="H785" s="11"/>
+      <c r="H785" s="10"/>
       <c r="AS785" s="9"/>
     </row>
     <row r="786">
-      <c r="H786" s="11"/>
+      <c r="H786" s="10"/>
       <c r="AS786" s="9"/>
     </row>
     <row r="787">
-      <c r="H787" s="11"/>
+      <c r="H787" s="10"/>
       <c r="AS787" s="9"/>
     </row>
     <row r="788">
-      <c r="H788" s="11"/>
+      <c r="H788" s="10"/>
       <c r="AS788" s="9"/>
     </row>
     <row r="789">
-      <c r="H789" s="11"/>
+      <c r="H789" s="10"/>
       <c r="AS789" s="9"/>
     </row>
     <row r="790">
-      <c r="H790" s="11"/>
+      <c r="H790" s="10"/>
       <c r="AS790" s="9"/>
     </row>
     <row r="791">
-      <c r="H791" s="11"/>
+      <c r="H791" s="10"/>
       <c r="AS791" s="9"/>
     </row>
     <row r="792">
-      <c r="H792" s="11"/>
+      <c r="H792" s="10"/>
       <c r="AS792" s="9"/>
     </row>
     <row r="793">
-      <c r="H793" s="11"/>
+      <c r="H793" s="10"/>
       <c r="AS793" s="9"/>
     </row>
     <row r="794">
-      <c r="H794" s="11"/>
+      <c r="H794" s="10"/>
       <c r="AS794" s="9"/>
     </row>
     <row r="795">
-      <c r="H795" s="11"/>
+      <c r="H795" s="10"/>
       <c r="AS795" s="9"/>
     </row>
     <row r="796">
-      <c r="H796" s="11"/>
+      <c r="H796" s="10"/>
       <c r="AS796" s="9"/>
     </row>
     <row r="797">
-      <c r="H797" s="11"/>
+      <c r="H797" s="10"/>
       <c r="AS797" s="9"/>
     </row>
     <row r="798">
-      <c r="H798" s="11"/>
+      <c r="H798" s="10"/>
       <c r="AS798" s="9"/>
     </row>
     <row r="799">
-      <c r="H799" s="11"/>
+      <c r="H799" s="10"/>
       <c r="AS799" s="9"/>
     </row>
     <row r="800">
-      <c r="H800" s="11"/>
+      <c r="H800" s="10"/>
       <c r="AS800" s="9"/>
     </row>
     <row r="801">
-      <c r="H801" s="11"/>
+      <c r="H801" s="10"/>
       <c r="AS801" s="9"/>
     </row>
     <row r="802">
-      <c r="H802" s="11"/>
+      <c r="H802" s="10"/>
       <c r="AS802" s="9"/>
     </row>
     <row r="803">
-      <c r="H803" s="11"/>
+      <c r="H803" s="10"/>
       <c r="AS803" s="9"/>
     </row>
     <row r="804">
-      <c r="H804" s="11"/>
+      <c r="H804" s="10"/>
       <c r="AS804" s="9"/>
     </row>
     <row r="805">
-      <c r="H805" s="11"/>
+      <c r="H805" s="10"/>
       <c r="AS805" s="9"/>
     </row>
     <row r="806">
-      <c r="H806" s="11"/>
+      <c r="H806" s="10"/>
       <c r="AS806" s="9"/>
     </row>
     <row r="807">
-      <c r="H807" s="11"/>
+      <c r="H807" s="10"/>
       <c r="AS807" s="9"/>
     </row>
     <row r="808">
-      <c r="H808" s="11"/>
+      <c r="H808" s="10"/>
       <c r="AS808" s="9"/>
     </row>
     <row r="809">
-      <c r="H809" s="11"/>
+      <c r="H809" s="10"/>
       <c r="AS809" s="9"/>
     </row>
     <row r="810">
-      <c r="H810" s="11"/>
+      <c r="H810" s="10"/>
       <c r="AS810" s="9"/>
     </row>
     <row r="811">
-      <c r="H811" s="11"/>
+      <c r="H811" s="10"/>
       <c r="AS811" s="9"/>
     </row>
     <row r="812">
-      <c r="H812" s="11"/>
+      <c r="H812" s="10"/>
       <c r="AS812" s="9"/>
     </row>
     <row r="813">
-      <c r="H813" s="11"/>
+      <c r="H813" s="10"/>
       <c r="AS813" s="9"/>
     </row>
     <row r="814">
-      <c r="H814" s="11"/>
+      <c r="H814" s="10"/>
       <c r="AS814" s="9"/>
     </row>
     <row r="815">
-      <c r="H815" s="11"/>
+      <c r="H815" s="10"/>
       <c r="AS815" s="9"/>
     </row>
     <row r="816">
-      <c r="H816" s="11"/>
+      <c r="H816" s="10"/>
       <c r="AS816" s="9"/>
     </row>
     <row r="817">
-      <c r="H817" s="11"/>
+      <c r="H817" s="10"/>
       <c r="AS817" s="9"/>
     </row>
     <row r="818">
-      <c r="H818" s="11"/>
+      <c r="H818" s="10"/>
       <c r="AS818" s="9"/>
     </row>
     <row r="819">
-      <c r="H819" s="11"/>
+      <c r="H819" s="10"/>
       <c r="AS819" s="9"/>
     </row>
     <row r="820">
-      <c r="H820" s="11"/>
+      <c r="H820" s="10"/>
       <c r="AS820" s="9"/>
     </row>
     <row r="821">
-      <c r="H821" s="11"/>
+      <c r="H821" s="10"/>
       <c r="AS821" s="9"/>
     </row>
     <row r="822">
-      <c r="H822" s="11"/>
+      <c r="H822" s="10"/>
       <c r="AS822" s="9"/>
     </row>
     <row r="823">
-      <c r="H823" s="11"/>
+      <c r="H823" s="10"/>
       <c r="AS823" s="9"/>
     </row>
     <row r="824">
-      <c r="H824" s="11"/>
+      <c r="H824" s="10"/>
       <c r="AS824" s="9"/>
     </row>
     <row r="825">
-      <c r="H825" s="11"/>
+      <c r="H825" s="10"/>
       <c r="AS825" s="9"/>
     </row>
     <row r="826">
-      <c r="H826" s="11"/>
+      <c r="H826" s="10"/>
       <c r="AS826" s="9"/>
     </row>
     <row r="827">
-      <c r="H827" s="11"/>
+      <c r="H827" s="10"/>
       <c r="AS827" s="9"/>
     </row>
     <row r="828">
-      <c r="H828" s="11"/>
+      <c r="H828" s="10"/>
       <c r="AS828" s="9"/>
     </row>
     <row r="829">
-      <c r="H829" s="11"/>
+      <c r="H829" s="10"/>
       <c r="AS829" s="9"/>
     </row>
     <row r="830">
-      <c r="H830" s="11"/>
+      <c r="H830" s="10"/>
       <c r="AS830" s="9"/>
     </row>
     <row r="831">
-      <c r="H831" s="11"/>
+      <c r="H831" s="10"/>
       <c r="AS831" s="9"/>
     </row>
     <row r="832">
-      <c r="H832" s="11"/>
+      <c r="H832" s="10"/>
       <c r="AS832" s="9"/>
     </row>
     <row r="833">
-      <c r="H833" s="11"/>
+      <c r="H833" s="10"/>
       <c r="AS833" s="9"/>
     </row>
     <row r="834">
-      <c r="H834" s="11"/>
+      <c r="H834" s="10"/>
       <c r="AS834" s="9"/>
     </row>
     <row r="835">
-      <c r="H835" s="11"/>
+      <c r="H835" s="10"/>
       <c r="AS835" s="9"/>
     </row>
     <row r="836">
-      <c r="H836" s="11"/>
+      <c r="H836" s="10"/>
       <c r="AS836" s="9"/>
     </row>
     <row r="837">
-      <c r="H837" s="11"/>
+      <c r="H837" s="10"/>
       <c r="AS837" s="9"/>
     </row>
     <row r="838">
-      <c r="H838" s="11"/>
+      <c r="H838" s="10"/>
       <c r="AS838" s="9"/>
     </row>
     <row r="839">
-      <c r="H839" s="11"/>
+      <c r="H839" s="10"/>
       <c r="AS839" s="9"/>
     </row>
     <row r="840">
-      <c r="H840" s="11"/>
+      <c r="H840" s="10"/>
       <c r="AS840" s="9"/>
     </row>
     <row r="841">
-      <c r="H841" s="11"/>
+      <c r="H841" s="10"/>
       <c r="AS841" s="9"/>
     </row>
     <row r="842">
-      <c r="H842" s="11"/>
+      <c r="H842" s="10"/>
       <c r="AS842" s="9"/>
     </row>
     <row r="843">
-      <c r="H843" s="11"/>
+      <c r="H843" s="10"/>
       <c r="AS843" s="9"/>
     </row>
     <row r="844">
-      <c r="H844" s="11"/>
+      <c r="H844" s="10"/>
       <c r="AS844" s="9"/>
     </row>
     <row r="845">
-      <c r="H845" s="11"/>
+      <c r="H845" s="10"/>
       <c r="AS845" s="9"/>
     </row>
     <row r="846">
-      <c r="H846" s="11"/>
+      <c r="H846" s="10"/>
       <c r="AS846" s="9"/>
     </row>
     <row r="847">
-      <c r="H847" s="11"/>
+      <c r="H847" s="10"/>
       <c r="AS847" s="9"/>
     </row>
     <row r="848">
-      <c r="H848" s="11"/>
+      <c r="H848" s="10"/>
       <c r="AS848" s="9"/>
     </row>
     <row r="849">
-      <c r="H849" s="11"/>
+      <c r="H849" s="10"/>
       <c r="AS849" s="9"/>
     </row>
     <row r="850">
-      <c r="H850" s="11"/>
+      <c r="H850" s="10"/>
       <c r="AS850" s="9"/>
     </row>
     <row r="851">
-      <c r="H851" s="11"/>
+      <c r="H851" s="10"/>
       <c r="AS851" s="9"/>
     </row>
     <row r="852">
-      <c r="H852" s="11"/>
+      <c r="H852" s="10"/>
       <c r="AS852" s="9"/>
     </row>
     <row r="853">
-      <c r="H853" s="11"/>
+      <c r="H853" s="10"/>
       <c r="AS853" s="9"/>
     </row>
     <row r="854">
-      <c r="H854" s="11"/>
+      <c r="H854" s="10"/>
       <c r="AS854" s="9"/>
     </row>
     <row r="855">
-      <c r="H855" s="11"/>
+      <c r="H855" s="10"/>
       <c r="AS855" s="9"/>
     </row>
     <row r="856">
-      <c r="H856" s="11"/>
+      <c r="H856" s="10"/>
       <c r="AS856" s="9"/>
     </row>
     <row r="857">
-      <c r="H857" s="11"/>
+      <c r="H857" s="10"/>
       <c r="AS857" s="9"/>
     </row>
     <row r="858">
-      <c r="H858" s="11"/>
+      <c r="H858" s="10"/>
       <c r="AS858" s="9"/>
     </row>
     <row r="859">
-      <c r="H859" s="11"/>
+      <c r="H859" s="10"/>
       <c r="AS859" s="9"/>
     </row>
     <row r="860">
-      <c r="H860" s="11"/>
+      <c r="H860" s="10"/>
       <c r="AS860" s="9"/>
     </row>
     <row r="861">
-      <c r="H861" s="11"/>
+      <c r="H861" s="10"/>
       <c r="AS861" s="9"/>
     </row>
     <row r="862">
-      <c r="H862" s="11"/>
+      <c r="H862" s="10"/>
       <c r="AS862" s="9"/>
     </row>
     <row r="863">
-      <c r="H863" s="11"/>
+      <c r="H863" s="10"/>
       <c r="AS863" s="9"/>
     </row>
     <row r="864">
-      <c r="H864" s="11"/>
+      <c r="H864" s="10"/>
       <c r="AS864" s="9"/>
     </row>
     <row r="865">
-      <c r="H865" s="11"/>
+      <c r="H865" s="10"/>
       <c r="AS865" s="9"/>
     </row>
     <row r="866">
-      <c r="H866" s="11"/>
+      <c r="H866" s="10"/>
       <c r="AS866" s="9"/>
     </row>
     <row r="867">
-      <c r="H867" s="11"/>
+      <c r="H867" s="10"/>
       <c r="AS867" s="9"/>
     </row>
     <row r="868">
-      <c r="H868" s="11"/>
+      <c r="H868" s="10"/>
       <c r="AS868" s="9"/>
     </row>
     <row r="869">
-      <c r="H869" s="11"/>
+      <c r="H869" s="10"/>
       <c r="AS869" s="9"/>
     </row>
     <row r="870">
-      <c r="H870" s="11"/>
+      <c r="H870" s="10"/>
       <c r="AS870" s="9"/>
     </row>
     <row r="871">
-      <c r="H871" s="11"/>
+      <c r="H871" s="10"/>
       <c r="AS871" s="9"/>
     </row>
     <row r="872">
-      <c r="H872" s="11"/>
+      <c r="H872" s="10"/>
       <c r="AS872" s="9"/>
     </row>
     <row r="873">
-      <c r="H873" s="11"/>
+      <c r="H873" s="10"/>
       <c r="AS873" s="9"/>
     </row>
     <row r="874">
-      <c r="H874" s="11"/>
+      <c r="H874" s="10"/>
       <c r="AS874" s="9"/>
     </row>
     <row r="875">
-      <c r="H875" s="11"/>
+      <c r="H875" s="10"/>
       <c r="AS875" s="9"/>
     </row>
     <row r="876">
-      <c r="H876" s="11"/>
+      <c r="H876" s="10"/>
       <c r="AS876" s="9"/>
     </row>
     <row r="877">
-      <c r="H877" s="11"/>
+      <c r="H877" s="10"/>
       <c r="AS877" s="9"/>
     </row>
     <row r="878">
-      <c r="H878" s="11"/>
+      <c r="H878" s="10"/>
       <c r="AS878" s="9"/>
     </row>
     <row r="879">
-      <c r="H879" s="11"/>
+      <c r="H879" s="10"/>
       <c r="AS879" s="9"/>
     </row>
     <row r="880">
-      <c r="H880" s="11"/>
+      <c r="H880" s="10"/>
       <c r="AS880" s="9"/>
     </row>
     <row r="881">
-      <c r="H881" s="11"/>
+      <c r="H881" s="10"/>
       <c r="AS881" s="9"/>
     </row>
     <row r="882">
-      <c r="H882" s="11"/>
+      <c r="H882" s="10"/>
       <c r="AS882" s="9"/>
     </row>
     <row r="883">
-      <c r="H883" s="11"/>
+      <c r="H883" s="10"/>
       <c r="AS883" s="9"/>
     </row>
     <row r="884">
-      <c r="H884" s="11"/>
+      <c r="H884" s="10"/>
       <c r="AS884" s="9"/>
     </row>
     <row r="885">
-      <c r="H885" s="11"/>
+      <c r="H885" s="10"/>
       <c r="AS885" s="9"/>
     </row>
     <row r="886">
-      <c r="H886" s="11"/>
+      <c r="H886" s="10"/>
       <c r="AS886" s="9"/>
     </row>
     <row r="887">
-      <c r="H887" s="11"/>
+      <c r="H887" s="10"/>
       <c r="AS887" s="9"/>
     </row>
     <row r="888">
-      <c r="H888" s="11"/>
+      <c r="H888" s="10"/>
       <c r="AS888" s="9"/>
     </row>
     <row r="889">
-      <c r="H889" s="11"/>
+      <c r="H889" s="10"/>
       <c r="AS889" s="9"/>
     </row>
     <row r="890">
-      <c r="H890" s="11"/>
+      <c r="H890" s="10"/>
       <c r="AS890" s="9"/>
     </row>
     <row r="891">
-      <c r="H891" s="11"/>
+      <c r="H891" s="10"/>
       <c r="AS891" s="9"/>
     </row>
     <row r="892">
-      <c r="H892" s="11"/>
+      <c r="H892" s="10"/>
       <c r="AS892" s="9"/>
     </row>
     <row r="893">
-      <c r="H893" s="11"/>
+      <c r="H893" s="10"/>
       <c r="AS893" s="9"/>
     </row>
     <row r="894">
-      <c r="H894" s="11"/>
+      <c r="H894" s="10"/>
       <c r="AS894" s="9"/>
     </row>
     <row r="895">
-      <c r="H895" s="11"/>
+      <c r="H895" s="10"/>
       <c r="AS895" s="9"/>
     </row>
     <row r="896">
-      <c r="H896" s="11"/>
+      <c r="H896" s="10"/>
       <c r="AS896" s="9"/>
     </row>
     <row r="897">
-      <c r="H897" s="11"/>
+      <c r="H897" s="10"/>
       <c r="AS897" s="9"/>
     </row>
     <row r="898">
-      <c r="H898" s="11"/>
+      <c r="H898" s="10"/>
       <c r="AS898" s="9"/>
     </row>
     <row r="899">
-      <c r="H899" s="11"/>
+      <c r="H899" s="10"/>
       <c r="AS899" s="9"/>
     </row>
     <row r="900">
-      <c r="H900" s="11"/>
+      <c r="H900" s="10"/>
       <c r="AS900" s="9"/>
     </row>
     <row r="901">
-      <c r="H901" s="11"/>
+      <c r="H901" s="10"/>
       <c r="AS901" s="9"/>
     </row>
     <row r="902">
-      <c r="H902" s="11"/>
+      <c r="H902" s="10"/>
       <c r="AS902" s="9"/>
     </row>
     <row r="903">
-      <c r="H903" s="11"/>
+      <c r="H903" s="10"/>
       <c r="AS903" s="9"/>
     </row>
     <row r="904">
-      <c r="H904" s="11"/>
+      <c r="H904" s="10"/>
       <c r="AS904" s="9"/>
     </row>
     <row r="905">
-      <c r="H905" s="11"/>
+      <c r="H905" s="10"/>
       <c r="AS905" s="9"/>
     </row>
     <row r="906">
-      <c r="H906" s="11"/>
+      <c r="H906" s="10"/>
       <c r="AS906" s="9"/>
     </row>
     <row r="907">
-      <c r="H907" s="11"/>
+      <c r="H907" s="10"/>
       <c r="AS907" s="9"/>
     </row>
     <row r="908">
-      <c r="H908" s="11"/>
+      <c r="H908" s="10"/>
       <c r="AS908" s="9"/>
     </row>
     <row r="909">
-      <c r="H909" s="11"/>
+      <c r="H909" s="10"/>
       <c r="AS909" s="9"/>
     </row>
     <row r="910">
-      <c r="H910" s="11"/>
+      <c r="H910" s="10"/>
       <c r="AS910" s="9"/>
     </row>
     <row r="911">
-      <c r="H911" s="11"/>
+      <c r="H911" s="10"/>
       <c r="AS911" s="9"/>
     </row>
     <row r="912">
-      <c r="H912" s="11"/>
+      <c r="H912" s="10"/>
       <c r="AS912" s="9"/>
     </row>
     <row r="913">
-      <c r="H913" s="11"/>
+      <c r="H913" s="10"/>
       <c r="AS913" s="9"/>
     </row>
     <row r="914">
-      <c r="H914" s="11"/>
+      <c r="H914" s="10"/>
       <c r="AS914" s="9"/>
     </row>
     <row r="915">
-      <c r="H915" s="11"/>
+      <c r="H915" s="10"/>
       <c r="AS915" s="9"/>
     </row>
     <row r="916">
-      <c r="H916" s="11"/>
+      <c r="H916" s="10"/>
       <c r="AS916" s="9"/>
     </row>
     <row r="917">
-      <c r="H917" s="11"/>
+      <c r="H917" s="10"/>
       <c r="AS917" s="9"/>
     </row>
     <row r="918">
-      <c r="H918" s="11"/>
+      <c r="H918" s="10"/>
       <c r="AS918" s="9"/>
     </row>
     <row r="919">
-      <c r="H919" s="11"/>
+      <c r="H919" s="10"/>
       <c r="AS919" s="9"/>
     </row>
     <row r="920">
-      <c r="H920" s="11"/>
+      <c r="H920" s="10"/>
       <c r="AS920" s="9"/>
     </row>
     <row r="921">
-      <c r="H921" s="11"/>
+      <c r="H921" s="10"/>
       <c r="AS921" s="9"/>
     </row>
     <row r="922">
-      <c r="H922" s="11"/>
+      <c r="H922" s="10"/>
       <c r="AS922" s="9"/>
     </row>
     <row r="923">
-      <c r="H923" s="11"/>
+      <c r="H923" s="10"/>
       <c r="AS923" s="9"/>
     </row>
     <row r="924">
-      <c r="H924" s="11"/>
+      <c r="H924" s="10"/>
       <c r="AS924" s="9"/>
     </row>
     <row r="925">
-      <c r="H925" s="11"/>
+      <c r="H925" s="10"/>
       <c r="AS925" s="9"/>
     </row>
     <row r="926">
-      <c r="H926" s="11"/>
+      <c r="H926" s="10"/>
       <c r="AS926" s="9"/>
     </row>
     <row r="927">
-      <c r="H927" s="11"/>
+      <c r="H927" s="10"/>
       <c r="AS927" s="9"/>
     </row>
     <row r="928">
-      <c r="H928" s="11"/>
+      <c r="H928" s="10"/>
       <c r="AS928" s="9"/>
     </row>
     <row r="929">
-      <c r="H929" s="11"/>
+      <c r="H929" s="10"/>
       <c r="AS929" s="9"/>
     </row>
     <row r="930">
-      <c r="H930" s="11"/>
+      <c r="H930" s="10"/>
       <c r="AS930" s="9"/>
     </row>
     <row r="931">
-      <c r="H931" s="11"/>
+      <c r="H931" s="10"/>
       <c r="AS931" s="9"/>
     </row>
     <row r="932">
-      <c r="H932" s="11"/>
+      <c r="H932" s="10"/>
       <c r="AS932" s="9"/>
     </row>
     <row r="933">
-      <c r="H933" s="11"/>
+      <c r="H933" s="10"/>
       <c r="AS933" s="9"/>
     </row>
     <row r="934">
-      <c r="H934" s="11"/>
+      <c r="H934" s="10"/>
       <c r="AS934" s="9"/>
     </row>
     <row r="935">
-      <c r="H935" s="11"/>
+      <c r="H935" s="10"/>
       <c r="AS935" s="9"/>
     </row>
     <row r="936">
-      <c r="H936" s="11"/>
+      <c r="H936" s="10"/>
       <c r="AS936" s="9"/>
     </row>
     <row r="937">
-      <c r="H937" s="11"/>
+      <c r="H937" s="10"/>
       <c r="AS937" s="9"/>
     </row>
     <row r="938">
-      <c r="H938" s="11"/>
+      <c r="H938" s="10"/>
       <c r="AS938" s="9"/>
     </row>
     <row r="939">
-      <c r="H939" s="11"/>
+      <c r="H939" s="10"/>
       <c r="AS939" s="9"/>
     </row>
     <row r="940">
-      <c r="H940" s="11"/>
+      <c r="H940" s="10"/>
       <c r="AS940" s="9"/>
     </row>
     <row r="941">
-      <c r="H941" s="11"/>
+      <c r="H941" s="10"/>
       <c r="AS941" s="9"/>
     </row>
     <row r="942">
-      <c r="H942" s="11"/>
+      <c r="H942" s="10"/>
       <c r="AS942" s="9"/>
     </row>
     <row r="943">
-      <c r="H943" s="11"/>
+      <c r="H943" s="10"/>
       <c r="AS943" s="9"/>
     </row>
     <row r="944">
-      <c r="H944" s="11"/>
+      <c r="H944" s="10"/>
       <c r="AS944" s="9"/>
     </row>
     <row r="945">
-      <c r="H945" s="11"/>
+      <c r="H945" s="10"/>
       <c r="AS945" s="9"/>
     </row>
     <row r="946">
-      <c r="H946" s="11"/>
+      <c r="H946" s="10"/>
       <c r="AS946" s="9"/>
     </row>
     <row r="947">
-      <c r="H947" s="11"/>
+      <c r="H947" s="10"/>
       <c r="AS947" s="9"/>
     </row>
     <row r="948">
-      <c r="H948" s="11"/>
+      <c r="H948" s="10"/>
       <c r="AS948" s="9"/>
     </row>
     <row r="949">
-      <c r="H949" s="11"/>
+      <c r="H949" s="10"/>
       <c r="AS949" s="9"/>
     </row>
     <row r="950">
-      <c r="H950" s="11"/>
+      <c r="H950" s="10"/>
       <c r="AS950" s="9"/>
     </row>
     <row r="951">
-      <c r="H951" s="11"/>
+      <c r="H951" s="10"/>
       <c r="AS951" s="9"/>
     </row>
     <row r="952">
-      <c r="H952" s="11"/>
+      <c r="H952" s="10"/>
       <c r="AS952" s="9"/>
     </row>
     <row r="953">
-      <c r="H953" s="11"/>
+      <c r="H953" s="10"/>
       <c r="AS953" s="9"/>
     </row>
     <row r="954">
-      <c r="H954" s="11"/>
+      <c r="H954" s="10"/>
       <c r="AS954" s="9"/>
     </row>
     <row r="955">
-      <c r="H955" s="11"/>
+      <c r="H955" s="10"/>
       <c r="AS955" s="9"/>
     </row>
     <row r="956">
-      <c r="H956" s="11"/>
+      <c r="H956" s="10"/>
       <c r="AS956" s="9"/>
     </row>
     <row r="957">
-      <c r="H957" s="11"/>
+      <c r="H957" s="10"/>
       <c r="AS957" s="9"/>
     </row>
     <row r="958">
-      <c r="H958" s="11"/>
+      <c r="H958" s="10"/>
       <c r="AS958" s="9"/>
     </row>
     <row r="959">
-      <c r="H959" s="11"/>
+      <c r="H959" s="10"/>
       <c r="AS959" s="9"/>
     </row>
     <row r="960">
-      <c r="H960" s="11"/>
+      <c r="H960" s="10"/>
       <c r="AS960" s="9"/>
     </row>
     <row r="961">
-      <c r="H961" s="11"/>
+      <c r="H961" s="10"/>
       <c r="AS961" s="9"/>
     </row>
     <row r="962">
-      <c r="H962" s="11"/>
+      <c r="H962" s="10"/>
       <c r="AS962" s="9"/>
     </row>
     <row r="963">
-      <c r="H963" s="11"/>
+      <c r="H963" s="10"/>
       <c r="AS963" s="9"/>
     </row>
     <row r="964">
-      <c r="H964" s="11"/>
+      <c r="H964" s="10"/>
       <c r="AS964" s="9"/>
     </row>
     <row r="965">
-      <c r="H965" s="11"/>
+      <c r="H965" s="10"/>
       <c r="AS965" s="9"/>
     </row>
     <row r="966">
-      <c r="H966" s="11"/>
+      <c r="H966" s="10"/>
       <c r="AS966" s="9"/>
     </row>
     <row r="967">
-      <c r="H967" s="11"/>
+      <c r="H967" s="10"/>
       <c r="AS967" s="9"/>
     </row>
     <row r="968">
-      <c r="H968" s="11"/>
+      <c r="H968" s="10"/>
       <c r="AS968" s="9"/>
     </row>
     <row r="969">
-      <c r="H969" s="11"/>
+      <c r="H969" s="10"/>
       <c r="AS969" s="9"/>
     </row>
     <row r="970">
-      <c r="H970" s="11"/>
+      <c r="H970" s="10"/>
       <c r="AS970" s="9"/>
     </row>
     <row r="971">
-      <c r="H971" s="11"/>
+      <c r="H971" s="10"/>
       <c r="AS971" s="9"/>
     </row>
     <row r="972">
-      <c r="H972" s="11"/>
+      <c r="H972" s="10"/>
       <c r="AS972" s="9"/>
     </row>
     <row r="973">
-      <c r="H973" s="11"/>
+      <c r="H973" s="10"/>
       <c r="AS973" s="9"/>
     </row>
     <row r="974">
-      <c r="H974" s="11"/>
+      <c r="H974" s="10"/>
       <c r="AS974" s="9"/>
     </row>
     <row r="975">
-      <c r="H975" s="11"/>
+      <c r="H975" s="10"/>
       <c r="AS975" s="9"/>
     </row>
     <row r="976">
-      <c r="H976" s="11"/>
+      <c r="H976" s="10"/>
       <c r="AS976" s="9"/>
     </row>
     <row r="977">
-      <c r="H977" s="11"/>
+      <c r="H977" s="10"/>
       <c r="AS977" s="9"/>
     </row>
     <row r="978">
-      <c r="H978" s="11"/>
+      <c r="H978" s="10"/>
       <c r="AS978" s="9"/>
     </row>
     <row r="979">
-      <c r="H979" s="11"/>
+      <c r="H979" s="10"/>
       <c r="AS979" s="9"/>
     </row>
     <row r="980">
-      <c r="H980" s="11"/>
+      <c r="H980" s="10"/>
       <c r="AS980" s="9"/>
     </row>
     <row r="981">
-      <c r="H981" s="11"/>
+      <c r="H981" s="10"/>
       <c r="AS981" s="9"/>
     </row>
     <row r="982">
-      <c r="H982" s="11"/>
+      <c r="H982" s="10"/>
       <c r="AS982" s="9"/>
     </row>
     <row r="983">
-      <c r="H983" s="11"/>
+      <c r="H983" s="10"/>
       <c r="AS983" s="9"/>
     </row>
     <row r="984">
-      <c r="H984" s="11"/>
+      <c r="H984" s="10"/>
       <c r="AS984" s="9"/>
     </row>
     <row r="985">
-      <c r="H985" s="11"/>
+      <c r="H985" s="10"/>
       <c r="AS985" s="9"/>
     </row>
     <row r="986">
-      <c r="H986" s="11"/>
+      <c r="H986" s="10"/>
       <c r="AS986" s="9"/>
     </row>
     <row r="987">
-      <c r="H987" s="11"/>
+      <c r="H987" s="10"/>
       <c r="AS987" s="9"/>
     </row>
     <row r="988">
-      <c r="H988" s="11"/>
+      <c r="H988" s="10"/>
       <c r="AS988" s="9"/>
     </row>
     <row r="989">
-      <c r="H989" s="11"/>
+      <c r="H989" s="10"/>
       <c r="AS989" s="9"/>
     </row>
     <row r="990">
-      <c r="H990" s="11"/>
+      <c r="H990" s="10"/>
       <c r="AS990" s="9"/>
     </row>
     <row r="991">
-      <c r="H991" s="11"/>
+      <c r="H991" s="10"/>
       <c r="AS991" s="9"/>
     </row>
     <row r="992">
-      <c r="H992" s="11"/>
+      <c r="H992" s="10"/>
       <c r="AS992" s="9"/>
     </row>
     <row r="993">
-      <c r="H993" s="11"/>
+      <c r="H993" s="10"/>
       <c r="AS993" s="9"/>
     </row>
     <row r="994">
-      <c r="H994" s="11"/>
+      <c r="H994" s="10"/>
       <c r="AS994" s="9"/>
     </row>
     <row r="995">
-      <c r="H995" s="11"/>
+      <c r="H995" s="10"/>
       <c r="AS995" s="9"/>
     </row>
     <row r="996">
-      <c r="H996" s="11"/>
+      <c r="H996" s="10"/>
       <c r="AS996" s="9"/>
     </row>
     <row r="997">
-      <c r="H997" s="11"/>
+      <c r="H997" s="10"/>
       <c r="AS997" s="9"/>
     </row>
     <row r="998">
-      <c r="H998" s="11"/>
+      <c r="H998" s="10"/>
       <c r="AS998" s="9"/>
     </row>
     <row r="999">
-      <c r="H999" s="11"/>
+      <c r="H999" s="10"/>
       <c r="AS999" s="9"/>
     </row>
   </sheetData>
